--- a/techlandbd.com_Testing_Documentation.xlsx
+++ b/techlandbd.com_Testing_Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\SQA\Git Repository\Manual Project\manual_testing_techlandbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE5738-DBF1-4D74-9DCF-DCBA69090CC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53834533-5B07-492F-A126-0FFB44C611C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3325,7 +3325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3542,7 +3542,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4011,6 +4010,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4063,15 +4065,18 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5688,7 +5693,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5700,160 +5705,160 @@
     <col min="6" max="12" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="167" customFormat="1" ht="12.45" customHeight="1">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:5" s="166" customFormat="1" ht="12.45" customHeight="1">
+      <c r="A1" s="185" t="s">
         <v>479</v>
       </c>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="189" t="s">
         <v>481</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="185" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="167" customFormat="1">
-      <c r="A2" s="182" t="s">
+    <row r="2" spans="1:5" s="166" customFormat="1">
+      <c r="A2" s="181" t="s">
         <v>480</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="170" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="175" t="s">
+      <c r="C2" s="174" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="167" customFormat="1">
-      <c r="A3" s="173" t="s">
+    <row r="3" spans="1:5" s="166" customFormat="1">
+      <c r="A3" s="172" t="s">
         <v>502</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="170" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="174" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="167" customFormat="1">
-      <c r="A4" s="173" t="s">
+    <row r="4" spans="1:5" s="166" customFormat="1">
+      <c r="A4" s="172" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="182" t="s">
         <v>483</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="174" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="167" customFormat="1">
-      <c r="A5" s="173" t="s">
+    <row r="5" spans="1:5" s="166" customFormat="1">
+      <c r="A5" s="172" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="175"/>
-    </row>
-    <row r="6" spans="1:5" s="167" customFormat="1">
-      <c r="A6" s="174" t="s">
+      <c r="B5" s="171"/>
+      <c r="C5" s="174"/>
+    </row>
+    <row r="6" spans="1:5" s="166" customFormat="1">
+      <c r="A6" s="173" t="s">
         <v>504</v>
       </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="176"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="175"/>
     </row>
     <row r="7" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="183" t="s">
         <v>474</v>
       </c>
-      <c r="B7" s="185" t="s">
+      <c r="B7" s="184" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="185" t="s">
         <v>476</v>
       </c>
-      <c r="D7" s="186" t="s">
+      <c r="D7" s="185" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="150" customHeight="1">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="168" t="s">
         <v>576</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="169" t="s">
         <v>513</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="168" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="191"/>
+      <c r="D8" s="190"/>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="185" t="s">
         <v>497</v>
       </c>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="185" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="185" t="s">
         <v>477</v>
       </c>
-      <c r="D9" s="186" t="s">
+      <c r="D9" s="185" t="s">
         <v>478</v>
       </c>
-      <c r="E9" s="168"/>
+      <c r="E9" s="167"/>
     </row>
     <row r="10" spans="1:5" ht="150" customHeight="1">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="169" t="s">
         <v>535</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="169" t="s">
         <v>575</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="229" t="s">
         <v>482</v>
       </c>
-      <c r="D10" s="169" t="s">
+      <c r="D10" s="168" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="188" t="s">
         <v>484</v>
       </c>
-      <c r="B11" s="188" t="s">
+      <c r="B11" s="187" t="s">
         <v>488</v>
       </c>
-      <c r="C11" s="187" t="s">
+      <c r="C11" s="186" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="176" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="177" t="s">
+      <c r="B12" s="176" t="s">
         <v>489</v>
       </c>
-      <c r="C12" s="180" t="s">
+      <c r="C12" s="179" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="177" t="s">
         <v>486</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="177" t="s">
         <v>490</v>
       </c>
-      <c r="C13" s="180" t="s">
+      <c r="C13" s="179" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.6" customHeight="1">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="178" t="s">
         <v>487</v>
       </c>
-      <c r="B14" s="179" t="s">
+      <c r="B14" s="178" t="s">
         <v>491</v>
       </c>
-      <c r="C14" s="181"/>
+      <c r="C14" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5876,8 +5881,8 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:12" ht="100.05" customHeight="1">
-      <c r="D4" s="163"/>
-      <c r="L4" s="192" t="s">
+      <c r="D4" s="162"/>
+      <c r="L4" s="191" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5893,7 +5898,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5926,7 +5931,7 @@
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="112" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="249" t="s">
@@ -5938,7 +5943,7 @@
       <c r="G5" s="251"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="113" t="s">
         <v>76</v>
       </c>
       <c r="C6" s="249" t="s">
@@ -5960,7 +5965,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="112" t="s">
         <v>79</v>
       </c>
       <c r="C7" s="249"/>
@@ -5979,7 +5984,7 @@
       <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
       <c r="C8" s="249" t="s">
@@ -6000,7 +6005,7 @@
       <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="112" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="249" t="s">
@@ -6018,22 +6023,22 @@
         <v>82</v>
       </c>
       <c r="K9" s="74"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="242" t="s">
         <v>83</v>
       </c>
-      <c r="M9" s="126" t="s">
+      <c r="M9" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="N9" s="126" t="s">
+      <c r="N9" s="125" t="s">
         <v>510</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O9" s="198" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="81"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="112" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="249" t="s">
@@ -6076,138 +6081,138 @@
       <c r="G12" s="257"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
     </row>
     <row r="14" spans="1:26" ht="48" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="237">
+      <c r="A14" s="85"/>
+      <c r="B14" s="236">
         <v>62</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="107">
         <f>'Test Cases'!Q2</f>
         <v>38</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="100">
         <f>'Test Cases'!Q3</f>
         <v>24</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="99">
         <f>'Test Cases'!Q4</f>
         <v>0</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="101">
         <f>'Test Cases'!Q5</f>
         <v>0</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G14" s="102">
         <f>'Test Cases'!Q6</f>
         <v>62</v>
       </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="86"/>
-      <c r="Z14" s="86"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
     </row>
     <row r="15" spans="1:26" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="88">
         <f t="shared" ref="C15:G15" si="0">SUM(C14)</f>
         <v>38</v>
       </c>
-      <c r="D15" s="90">
+      <c r="D15" s="89">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="91">
+      <c r="G15" s="90">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="L15" s="72"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="L16" s="72"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="258" t="s">
@@ -6225,11 +6230,11 @@
       </c>
       <c r="C19" s="244"/>
       <c r="D19" s="245"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="94" t="s">
+      <c r="G19" s="93" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6239,11 +6244,11 @@
       </c>
       <c r="C20" s="244"/>
       <c r="D20" s="245"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95" t="s">
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="95" t="s">
+      <c r="G20" s="94" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6253,11 +6258,11 @@
       </c>
       <c r="C21" s="244"/>
       <c r="D21" s="245"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95" t="s">
+      <c r="E21" s="94"/>
+      <c r="F21" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="94" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6302,10 +6307,10 @@
       <c r="B27" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="270" t="s">
+      <c r="C27" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="271" t="s">
+      <c r="D27" s="273" t="s">
         <v>102</v>
       </c>
       <c r="E27" s="265"/>
@@ -6313,7 +6318,7 @@
       <c r="G27" s="266"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="261"/>
+      <c r="B28" s="270"/>
       <c r="C28" s="261"/>
       <c r="D28" s="267"/>
       <c r="E28" s="268"/>
@@ -6321,7 +6326,7 @@
       <c r="G28" s="254"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="261"/>
+      <c r="B29" s="270"/>
       <c r="C29" s="261"/>
       <c r="D29" s="267"/>
       <c r="E29" s="268"/>
@@ -6329,7 +6334,7 @@
       <c r="G29" s="254"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="262"/>
+      <c r="B30" s="271"/>
       <c r="C30" s="262"/>
       <c r="D30" s="255"/>
       <c r="E30" s="256"/>
@@ -6340,10 +6345,10 @@
       <c r="B31" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="270" t="s">
+      <c r="C31" s="272" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="271" t="s">
+      <c r="D31" s="273" t="s">
         <v>104</v>
       </c>
       <c r="E31" s="265"/>
@@ -6351,7 +6356,7 @@
       <c r="G31" s="266"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="261"/>
+      <c r="B32" s="270"/>
       <c r="C32" s="261"/>
       <c r="D32" s="267"/>
       <c r="E32" s="268"/>
@@ -6359,7 +6364,7 @@
       <c r="G32" s="254"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="261"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="261"/>
       <c r="D33" s="267"/>
       <c r="E33" s="268"/>
@@ -6367,7 +6372,7 @@
       <c r="G33" s="254"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="262"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="262"/>
       <c r="D34" s="255"/>
       <c r="E34" s="256"/>
@@ -6378,10 +6383,10 @@
       <c r="B35" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="270" t="s">
+      <c r="C35" s="272" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="271" t="s">
+      <c r="D35" s="273" t="s">
         <v>106</v>
       </c>
       <c r="E35" s="265"/>
@@ -6389,7 +6394,7 @@
       <c r="G35" s="266"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="261"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="261"/>
       <c r="D36" s="267"/>
       <c r="E36" s="268"/>
@@ -6397,7 +6402,7 @@
       <c r="G36" s="254"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="261"/>
+      <c r="B37" s="270"/>
       <c r="C37" s="261"/>
       <c r="D37" s="267"/>
       <c r="E37" s="268"/>
@@ -6405,7 +6410,7 @@
       <c r="G37" s="254"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="262"/>
+      <c r="B38" s="271"/>
       <c r="C38" s="262"/>
       <c r="D38" s="255"/>
       <c r="E38" s="256"/>
@@ -6416,10 +6421,10 @@
       <c r="B39" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="270" t="s">
+      <c r="C39" s="272" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="271" t="s">
+      <c r="D39" s="273" t="s">
         <v>107</v>
       </c>
       <c r="E39" s="265"/>
@@ -6427,7 +6432,7 @@
       <c r="G39" s="266"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="261"/>
+      <c r="B40" s="270"/>
       <c r="C40" s="261"/>
       <c r="D40" s="267"/>
       <c r="E40" s="268"/>
@@ -6435,7 +6440,7 @@
       <c r="G40" s="254"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="261"/>
+      <c r="B41" s="270"/>
       <c r="C41" s="261"/>
       <c r="D41" s="267"/>
       <c r="E41" s="268"/>
@@ -6443,7 +6448,7 @@
       <c r="G41" s="254"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="262"/>
+      <c r="B42" s="271"/>
       <c r="C42" s="262"/>
       <c r="D42" s="255"/>
       <c r="E42" s="256"/>
@@ -6454,10 +6459,10 @@
       <c r="B43" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="272" t="s">
+      <c r="C43" s="269" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="271" t="s">
+      <c r="D43" s="273" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="265"/>
@@ -6465,7 +6470,7 @@
       <c r="G43" s="266"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="261"/>
+      <c r="B44" s="270"/>
       <c r="C44" s="261"/>
       <c r="D44" s="267"/>
       <c r="E44" s="268"/>
@@ -6473,7 +6478,7 @@
       <c r="G44" s="254"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="261"/>
+      <c r="B45" s="270"/>
       <c r="C45" s="261"/>
       <c r="D45" s="267"/>
       <c r="E45" s="268"/>
@@ -6481,7 +6486,7 @@
       <c r="G45" s="254"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="262"/>
+      <c r="B46" s="271"/>
       <c r="C46" s="262"/>
       <c r="D46" s="255"/>
       <c r="E46" s="256"/>
@@ -6492,10 +6497,10 @@
       <c r="B47" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="272" t="s">
+      <c r="C47" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="271" t="s">
+      <c r="D47" s="273" t="s">
         <v>111</v>
       </c>
       <c r="E47" s="265"/>
@@ -6503,7 +6508,7 @@
       <c r="G47" s="266"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="261"/>
+      <c r="B48" s="270"/>
       <c r="C48" s="261"/>
       <c r="D48" s="267"/>
       <c r="E48" s="268"/>
@@ -6511,7 +6516,7 @@
       <c r="G48" s="254"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="261"/>
+      <c r="B49" s="270"/>
       <c r="C49" s="261"/>
       <c r="D49" s="267"/>
       <c r="E49" s="268"/>
@@ -6519,7 +6524,7 @@
       <c r="G49" s="254"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="262"/>
+      <c r="B50" s="271"/>
       <c r="C50" s="262"/>
       <c r="D50" s="255"/>
       <c r="E50" s="256"/>
@@ -6530,10 +6535,10 @@
       <c r="B51" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="272" t="s">
+      <c r="C51" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="271" t="s">
+      <c r="D51" s="273" t="s">
         <v>113</v>
       </c>
       <c r="E51" s="265"/>
@@ -6541,7 +6546,7 @@
       <c r="G51" s="266"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="261"/>
+      <c r="B52" s="270"/>
       <c r="C52" s="261"/>
       <c r="D52" s="267"/>
       <c r="E52" s="268"/>
@@ -6549,7 +6554,7 @@
       <c r="G52" s="254"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="261"/>
+      <c r="B53" s="270"/>
       <c r="C53" s="261"/>
       <c r="D53" s="267"/>
       <c r="E53" s="268"/>
@@ -6557,7 +6562,7 @@
       <c r="G53" s="254"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="262"/>
+      <c r="B54" s="271"/>
       <c r="C54" s="262"/>
       <c r="D54" s="255"/>
       <c r="E54" s="256"/>
@@ -7586,33 +7591,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="280" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
       <c r="I1" s="54"/>
-      <c r="J1" s="193" t="s">
+      <c r="J1" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="158">
+      <c r="K1" s="157">
         <v>45209</v>
       </c>
-      <c r="L1" s="197" t="s">
+      <c r="L1" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="197"/>
-      <c r="N1" s="162"/>
+      <c r="M1" s="196"/>
+      <c r="N1" s="161"/>
       <c r="O1" s="55"/>
-      <c r="P1" s="281" t="s">
+      <c r="P1" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="282"/>
+      <c r="Q1" s="283"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
@@ -7632,33 +7637,33 @@
       <c r="AH1" s="56"/>
     </row>
     <row r="2" spans="1:34" ht="45" customHeight="1">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="284" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="286"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="287"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="194" t="s">
+      <c r="J2" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="159" t="s">
+      <c r="K2" s="158" t="s">
         <v>413</v>
       </c>
-      <c r="L2" s="196" t="s">
+      <c r="L2" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="196"/>
-      <c r="N2" s="161"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="160"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="105" t="s">
+      <c r="P2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="106">
+      <c r="Q2" s="105">
         <f>COUNTIF(O8:O75, "PASS")</f>
         <v>38</v>
       </c>
@@ -7666,7 +7671,7 @@
       <c r="S2" s="58"/>
       <c r="T2" s="58"/>
       <c r="U2" s="58"/>
-      <c r="V2" s="111" t="s">
+      <c r="V2" s="110" t="s">
         <v>5</v>
       </c>
       <c r="W2" s="58"/>
@@ -7683,21 +7688,21 @@
       <c r="AH2" s="58"/>
     </row>
     <row r="3" spans="1:34" ht="45" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="284" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="285"/>
-      <c r="G3" s="285"/>
-      <c r="H3" s="286"/>
+      <c r="B3" s="285"/>
+      <c r="C3" s="285"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="287"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="195" t="s">
+      <c r="J3" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="160" t="s">
+      <c r="K3" s="159" t="s">
         <v>115</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -7708,7 +7713,7 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="96" t="s">
+      <c r="P3" s="95" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="67">
@@ -7719,7 +7724,7 @@
       <c r="S3" s="58"/>
       <c r="T3" s="58"/>
       <c r="U3" s="58"/>
-      <c r="V3" s="111" t="s">
+      <c r="V3" s="110" t="s">
         <v>8</v>
       </c>
       <c r="W3" s="58"/>
@@ -7736,33 +7741,33 @@
       <c r="AH3" s="58"/>
     </row>
     <row r="4" spans="1:34" ht="45" customHeight="1">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="284" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
-      <c r="H4" s="286"/>
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="286"/>
+      <c r="F4" s="286"/>
+      <c r="G4" s="286"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="195" t="s">
+      <c r="J4" s="194" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="109" t="s">
+      <c r="M4" s="108" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="60"/>
-      <c r="P4" s="97" t="s">
+      <c r="P4" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="107">
+      <c r="Q4" s="106">
         <f>COUNTIF(O8:O75, "Not Executed")</f>
         <v>0</v>
       </c>
@@ -7770,7 +7775,7 @@
       <c r="S4" s="58"/>
       <c r="T4" s="58"/>
       <c r="U4" s="58"/>
-      <c r="V4" s="112" t="s">
+      <c r="V4" s="111" t="s">
         <v>82</v>
       </c>
       <c r="W4" s="58"/>
@@ -7787,16 +7792,16 @@
       <c r="AH4" s="58"/>
     </row>
     <row r="5" spans="1:34" ht="45" customHeight="1">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="288"/>
-      <c r="C5" s="288"/>
-      <c r="D5" s="288"/>
-      <c r="E5" s="288"/>
-      <c r="F5" s="288"/>
-      <c r="G5" s="288"/>
-      <c r="H5" s="289"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
+      <c r="G5" s="289"/>
+      <c r="H5" s="290"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -7804,10 +7809,10 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Q5" s="99">
+      <c r="Q5" s="98">
         <f>COUNTIF(O8:O75, "Out of Scope")</f>
         <v>0</v>
       </c>
@@ -7815,7 +7820,7 @@
       <c r="S5" s="58"/>
       <c r="T5" s="58"/>
       <c r="U5" s="58"/>
-      <c r="V5" s="111" t="s">
+      <c r="V5" s="110" t="s">
         <v>88</v>
       </c>
       <c r="W5" s="58"/>
@@ -7832,25 +7837,25 @@
       <c r="AH5" s="58"/>
     </row>
     <row r="6" spans="1:34" ht="42.6" customHeight="1">
-      <c r="A6" s="273"/>
-      <c r="B6" s="274"/>
-      <c r="C6" s="274"/>
-      <c r="D6" s="274"/>
-      <c r="E6" s="274"/>
-      <c r="F6" s="274"/>
-      <c r="G6" s="274"/>
-      <c r="H6" s="275"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="277"/>
-      <c r="K6" s="277"/>
-      <c r="L6" s="277"/>
-      <c r="M6" s="277"/>
-      <c r="N6" s="277"/>
-      <c r="O6" s="278"/>
+      <c r="A6" s="274"/>
+      <c r="B6" s="275"/>
+      <c r="C6" s="275"/>
+      <c r="D6" s="275"/>
+      <c r="E6" s="275"/>
+      <c r="F6" s="275"/>
+      <c r="G6" s="275"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="277"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="278"/>
+      <c r="N6" s="278"/>
+      <c r="O6" s="279"/>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="104">
+      <c r="Q6" s="103">
         <f>SUM(Q2:Q5)</f>
         <v>62</v>
       </c>
@@ -7941,7 +7946,7 @@
       <c r="AH7" s="58"/>
     </row>
     <row r="8" spans="1:34" ht="90" customHeight="1">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="121" t="s">
         <v>194</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -7958,13 +7963,13 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="205" t="s">
+      <c r="H8" s="204" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="206" t="s">
+      <c r="J8" s="205" t="s">
         <v>120</v>
       </c>
       <c r="K8" s="11" t="s">
@@ -7999,22 +8004,22 @@
       <c r="AH8" s="58"/>
     </row>
     <row r="9" spans="1:34" ht="18" customHeight="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
-      <c r="N9" s="138"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="137"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="198"/>
+      <c r="P9" s="197"/>
       <c r="Q9" s="68"/>
       <c r="R9" s="58"/>
       <c r="S9" s="58"/>
@@ -8035,7 +8040,7 @@
       <c r="AH9" s="58"/>
     </row>
     <row r="10" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="121" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -8044,21 +8049,21 @@
       <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="225" t="s">
+      <c r="D10" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="225" t="s">
+      <c r="E10" s="224" t="s">
         <v>536</v>
       </c>
-      <c r="F10" s="225" t="s">
+      <c r="F10" s="224" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="201" t="s">
+      <c r="H10" s="200" t="s">
         <v>514</v>
       </c>
-      <c r="I10" s="134"/>
-      <c r="J10" s="117" t="s">
+      <c r="I10" s="133"/>
+      <c r="J10" s="116" t="s">
         <v>532</v>
       </c>
       <c r="K10" s="19" t="s">
@@ -8093,7 +8098,7 @@
       <c r="AH10" s="58"/>
     </row>
     <row r="11" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="121" t="s">
         <v>196</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -8104,11 +8109,11 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="202" t="s">
+      <c r="H11" s="201" t="s">
         <v>515</v>
       </c>
-      <c r="I11" s="134"/>
-      <c r="J11" s="115" t="s">
+      <c r="I11" s="133"/>
+      <c r="J11" s="114" t="s">
         <v>531</v>
       </c>
       <c r="K11" s="19" t="s">
@@ -8143,7 +8148,7 @@
       <c r="AH11" s="58"/>
     </row>
     <row r="12" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A12" s="122" t="s">
+      <c r="A12" s="121" t="s">
         <v>197</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -8154,11 +8159,11 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="22"/>
-      <c r="H12" s="202" t="s">
+      <c r="H12" s="201" t="s">
         <v>516</v>
       </c>
-      <c r="I12" s="134"/>
-      <c r="J12" s="115" t="s">
+      <c r="I12" s="133"/>
+      <c r="J12" s="114" t="s">
         <v>533</v>
       </c>
       <c r="K12" s="19" t="s">
@@ -8191,7 +8196,7 @@
       <c r="AF12" s="58"/>
     </row>
     <row r="13" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>198</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -8202,11 +8207,11 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="202" t="s">
+      <c r="H13" s="201" t="s">
         <v>517</v>
       </c>
-      <c r="I13" s="134"/>
-      <c r="J13" s="115" t="s">
+      <c r="I13" s="133"/>
+      <c r="J13" s="114" t="s">
         <v>376</v>
       </c>
       <c r="K13" s="19" t="s">
@@ -8215,7 +8220,7 @@
       <c r="L13" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M13" s="127" t="s">
+      <c r="M13" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N13" s="19"/>
@@ -8241,7 +8246,7 @@
       <c r="AF13" s="58"/>
     </row>
     <row r="14" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="121" t="s">
         <v>199</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -8252,11 +8257,11 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="22"/>
-      <c r="H14" s="202" t="s">
+      <c r="H14" s="201" t="s">
         <v>518</v>
       </c>
-      <c r="I14" s="134"/>
-      <c r="J14" s="115" t="s">
+      <c r="I14" s="133"/>
+      <c r="J14" s="114" t="s">
         <v>540</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -8289,7 +8294,7 @@
       <c r="AF14" s="58"/>
     </row>
     <row r="15" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="121" t="s">
         <v>200</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -8300,11 +8305,11 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="202" t="s">
+      <c r="H15" s="201" t="s">
         <v>519</v>
       </c>
-      <c r="I15" s="134"/>
-      <c r="J15" s="115" t="s">
+      <c r="I15" s="133"/>
+      <c r="J15" s="114" t="s">
         <v>150</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -8337,7 +8342,7 @@
       <c r="AF15" s="58"/>
     </row>
     <row r="16" spans="1:34" ht="70.05" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="121" t="s">
         <v>201</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -8348,11 +8353,11 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="202" t="s">
+      <c r="H16" s="201" t="s">
         <v>520</v>
       </c>
-      <c r="I16" s="134"/>
-      <c r="J16" s="115" t="s">
+      <c r="I16" s="133"/>
+      <c r="J16" s="114" t="s">
         <v>297</v>
       </c>
       <c r="K16" s="19" t="s">
@@ -8361,7 +8366,7 @@
       <c r="L16" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M16" s="131" t="s">
+      <c r="M16" s="130" t="s">
         <v>285</v>
       </c>
       <c r="N16" s="19"/>
@@ -8387,7 +8392,7 @@
       <c r="AF16" s="58"/>
     </row>
     <row r="17" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="121" t="s">
         <v>202</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -8398,11 +8403,11 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="201" t="s">
         <v>554</v>
       </c>
-      <c r="I17" s="134"/>
-      <c r="J17" s="117" t="s">
+      <c r="I17" s="133"/>
+      <c r="J17" s="116" t="s">
         <v>555</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -8435,7 +8440,7 @@
       <c r="AF17" s="58"/>
     </row>
     <row r="18" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="121" t="s">
         <v>203</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -8446,11 +8451,11 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="203" t="s">
+      <c r="H18" s="202" t="s">
         <v>521</v>
       </c>
-      <c r="I18" s="134"/>
-      <c r="J18" s="115" t="s">
+      <c r="I18" s="133"/>
+      <c r="J18" s="114" t="s">
         <v>235</v>
       </c>
       <c r="K18" s="19" t="s">
@@ -8483,7 +8488,7 @@
       <c r="AF18" s="58"/>
     </row>
     <row r="19" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="121" t="s">
         <v>204</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -8494,11 +8499,11 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="202" t="s">
+      <c r="H19" s="201" t="s">
         <v>522</v>
       </c>
-      <c r="I19" s="134"/>
-      <c r="J19" s="115" t="s">
+      <c r="I19" s="133"/>
+      <c r="J19" s="114" t="s">
         <v>236</v>
       </c>
       <c r="K19" s="19" t="s">
@@ -8507,7 +8512,7 @@
       <c r="L19" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="M19" s="127" t="s">
+      <c r="M19" s="126" t="s">
         <v>285</v>
       </c>
       <c r="N19" s="19"/>
@@ -8533,7 +8538,7 @@
       <c r="AF19" s="58"/>
     </row>
     <row r="20" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="121" t="s">
         <v>205</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -8544,11 +8549,11 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="202" t="s">
+      <c r="H20" s="201" t="s">
         <v>541</v>
       </c>
-      <c r="I20" s="135"/>
-      <c r="J20" s="117" t="s">
+      <c r="I20" s="134"/>
+      <c r="J20" s="116" t="s">
         <v>542</v>
       </c>
       <c r="K20" s="19" t="s">
@@ -8557,7 +8562,7 @@
       <c r="L20" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M20" s="127" t="s">
+      <c r="M20" s="126" t="s">
         <v>285</v>
       </c>
       <c r="N20" s="19"/>
@@ -8583,7 +8588,7 @@
       <c r="AF20" s="58"/>
     </row>
     <row r="21" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="121" t="s">
         <v>206</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -8594,11 +8599,11 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="226" t="s">
+      <c r="H21" s="225" t="s">
         <v>524</v>
       </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="117" t="s">
+      <c r="I21" s="134"/>
+      <c r="J21" s="116" t="s">
         <v>138</v>
       </c>
       <c r="K21" s="19" t="s">
@@ -8631,7 +8636,7 @@
       <c r="AF21" s="58"/>
     </row>
     <row r="22" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="121" t="s">
         <v>207</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -8642,11 +8647,11 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="202" t="s">
+      <c r="H22" s="201" t="s">
         <v>528</v>
       </c>
-      <c r="I22" s="135"/>
-      <c r="J22" s="115" t="s">
+      <c r="I22" s="134"/>
+      <c r="J22" s="114" t="s">
         <v>250</v>
       </c>
       <c r="K22" s="19" t="s">
@@ -8655,7 +8660,7 @@
       <c r="L22" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M22" s="128" t="s">
+      <c r="M22" s="127" t="s">
         <v>285</v>
       </c>
       <c r="N22" s="18"/>
@@ -8681,7 +8686,7 @@
       <c r="AF22" s="58"/>
     </row>
     <row r="23" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="121" t="s">
         <v>208</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -8692,11 +8697,11 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="202" t="s">
+      <c r="H23" s="201" t="s">
         <v>527</v>
       </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="115" t="s">
+      <c r="I23" s="135"/>
+      <c r="J23" s="114" t="s">
         <v>249</v>
       </c>
       <c r="K23" s="19" t="s">
@@ -8730,7 +8735,7 @@
       <c r="AG23" s="58"/>
     </row>
     <row r="24" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A24" s="122" t="s">
+      <c r="A24" s="121" t="s">
         <v>209</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -8741,11 +8746,11 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="201" t="s">
         <v>526</v>
       </c>
-      <c r="I24" s="136"/>
-      <c r="J24" s="115" t="s">
+      <c r="I24" s="135"/>
+      <c r="J24" s="114" t="s">
         <v>237</v>
       </c>
       <c r="K24" s="19" t="s">
@@ -8779,7 +8784,7 @@
       <c r="AG24" s="58"/>
     </row>
     <row r="25" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="121" t="s">
         <v>210</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -8790,11 +8795,11 @@
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="203" t="s">
+      <c r="H25" s="202" t="s">
         <v>525</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="J25" s="115" t="s">
+      <c r="I25" s="135"/>
+      <c r="J25" s="114" t="s">
         <v>238</v>
       </c>
       <c r="K25" s="19" t="s">
@@ -8828,7 +8833,7 @@
       <c r="AG25" s="58"/>
     </row>
     <row r="26" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A26" s="122" t="s">
+      <c r="A26" s="121" t="s">
         <v>211</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -8839,13 +8844,13 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="203" t="s">
+      <c r="H26" s="202" t="s">
         <v>529</v>
       </c>
-      <c r="I26" s="133" t="s">
+      <c r="I26" s="132" t="s">
         <v>509</v>
       </c>
-      <c r="J26" s="115" t="s">
+      <c r="J26" s="114" t="s">
         <v>240</v>
       </c>
       <c r="K26" s="19" t="s">
@@ -8854,7 +8859,7 @@
       <c r="L26" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M26" s="132" t="s">
+      <c r="M26" s="131" t="s">
         <v>287</v>
       </c>
       <c r="N26" s="14"/>
@@ -8881,7 +8886,7 @@
       <c r="AG26" s="58"/>
     </row>
     <row r="27" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="121" t="s">
         <v>353</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -8891,23 +8896,23 @@
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
       <c r="F27" s="69"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="202" t="s">
+      <c r="G27" s="142"/>
+      <c r="H27" s="201" t="s">
         <v>530</v>
       </c>
-      <c r="I27" s="231" t="s">
+      <c r="I27" s="230" t="s">
         <v>509</v>
       </c>
-      <c r="J27" s="118" t="s">
+      <c r="J27" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="K27" s="124" t="s">
+      <c r="K27" s="123" t="s">
         <v>254</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M27" s="132" t="s">
+      <c r="M27" s="131" t="s">
         <v>287</v>
       </c>
       <c r="N27" s="14"/>
@@ -8934,7 +8939,7 @@
       <c r="AG27" s="58"/>
     </row>
     <row r="28" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="121" t="s">
         <v>212</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -8945,11 +8950,11 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="202" t="s">
+      <c r="H28" s="201" t="s">
         <v>243</v>
       </c>
-      <c r="I28" s="117"/>
-      <c r="J28" s="115" t="s">
+      <c r="I28" s="116"/>
+      <c r="J28" s="114" t="s">
         <v>137</v>
       </c>
       <c r="K28" s="19" t="s">
@@ -8963,7 +8968,7 @@
       <c r="O28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P28" s="141"/>
+      <c r="P28" s="140"/>
       <c r="Q28" s="58"/>
       <c r="R28" s="58"/>
       <c r="S28" s="58"/>
@@ -8983,7 +8988,7 @@
       <c r="AG28" s="58"/>
     </row>
     <row r="29" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A29" s="122" t="s">
+      <c r="A29" s="121" t="s">
         <v>213</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -8994,11 +8999,11 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="203" t="s">
+      <c r="H29" s="202" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115" t="s">
+      <c r="I29" s="114"/>
+      <c r="J29" s="114" t="s">
         <v>548</v>
       </c>
       <c r="K29" s="19" t="s">
@@ -9007,14 +9012,14 @@
       <c r="L29" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M29" s="127" t="s">
+      <c r="M29" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N29" s="14"/>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="141"/>
+      <c r="P29" s="140"/>
       <c r="Q29" s="58"/>
       <c r="R29" s="58"/>
       <c r="S29" s="58"/>
@@ -9034,7 +9039,7 @@
       <c r="AG29" s="58"/>
     </row>
     <row r="30" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="121" t="s">
         <v>214</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -9043,23 +9048,23 @@
       <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="142" t="s">
+      <c r="D30" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="142" t="s">
+      <c r="E30" s="141" t="s">
         <v>536</v>
       </c>
-      <c r="F30" s="142" t="s">
+      <c r="F30" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="142" t="s">
+      <c r="G30" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="H30" s="232" t="s">
+      <c r="H30" s="231" t="s">
         <v>471</v>
       </c>
       <c r="I30" s="11"/>
-      <c r="J30" s="116" t="s">
+      <c r="J30" s="115" t="s">
         <v>310</v>
       </c>
       <c r="K30" s="11" t="s">
@@ -9068,12 +9073,12 @@
       <c r="L30" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M30" s="132"/>
+      <c r="M30" s="131"/>
       <c r="N30" s="14"/>
       <c r="O30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P30" s="141"/>
+      <c r="P30" s="140"/>
       <c r="Q30" s="58"/>
       <c r="R30" s="58"/>
       <c r="S30" s="58"/>
@@ -9093,7 +9098,7 @@
       <c r="AG30" s="58"/>
     </row>
     <row r="31" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="121" t="s">
         <v>215</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -9104,11 +9109,11 @@
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="232" t="s">
+      <c r="H31" s="231" t="s">
         <v>313</v>
       </c>
       <c r="I31" s="11"/>
-      <c r="J31" s="116" t="s">
+      <c r="J31" s="115" t="s">
         <v>309</v>
       </c>
       <c r="K31" s="11" t="s">
@@ -9117,12 +9122,12 @@
       <c r="L31" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="132"/>
+      <c r="M31" s="131"/>
       <c r="N31" s="14"/>
       <c r="O31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="141"/>
+      <c r="P31" s="140"/>
       <c r="Q31" s="58"/>
       <c r="R31" s="58"/>
       <c r="S31" s="58"/>
@@ -9142,7 +9147,7 @@
       <c r="AG31" s="58"/>
     </row>
     <row r="32" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A32" s="122" t="s">
+      <c r="A32" s="121" t="s">
         <v>216</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -9151,13 +9156,13 @@
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="239"/>
+      <c r="F32" s="238"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="165" t="s">
+      <c r="H32" s="164" t="s">
         <v>312</v>
       </c>
       <c r="I32" s="11"/>
-      <c r="J32" s="116" t="s">
+      <c r="J32" s="115" t="s">
         <v>549</v>
       </c>
       <c r="K32" s="11" t="s">
@@ -9166,12 +9171,12 @@
       <c r="L32" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="127"/>
+      <c r="M32" s="126"/>
       <c r="N32" s="14"/>
       <c r="O32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="141"/>
+      <c r="P32" s="140"/>
       <c r="Q32" s="58"/>
       <c r="R32" s="58"/>
       <c r="S32" s="58"/>
@@ -9191,22 +9196,22 @@
       <c r="AG32" s="58"/>
     </row>
     <row r="33" spans="1:33" ht="70.05" customHeight="1">
-      <c r="A33" s="122" t="s">
+      <c r="A33" s="121" t="s">
         <v>215</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="165" t="s">
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="164" t="s">
         <v>314</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="144" t="s">
+      <c r="J33" s="143" t="s">
         <v>315</v>
       </c>
       <c r="K33" s="19" t="s">
@@ -9215,12 +9220,12 @@
       <c r="L33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="127"/>
+      <c r="M33" s="126"/>
       <c r="N33" s="14"/>
       <c r="O33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="141"/>
+      <c r="P33" s="140"/>
       <c r="Q33" s="58"/>
       <c r="R33" s="58"/>
       <c r="S33" s="58"/>
@@ -9240,22 +9245,22 @@
       <c r="AG33" s="58"/>
     </row>
     <row r="34" spans="1:33" ht="18" customHeight="1">
-      <c r="A34" s="130"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="149"/>
+      <c r="H34" s="148"/>
       <c r="I34" s="66"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="154"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="153"/>
       <c r="L34" s="40"/>
       <c r="M34" s="40"/>
       <c r="N34" s="40"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="146"/>
+      <c r="P34" s="145"/>
       <c r="Q34" s="58"/>
       <c r="R34" s="58"/>
       <c r="S34" s="58"/>
@@ -9275,30 +9280,30 @@
       <c r="AG34" s="58"/>
     </row>
     <row r="35" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A35" s="122" t="s">
+      <c r="A35" s="121" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="122" t="s">
         <v>175</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="238" t="s">
+      <c r="D35" s="237" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="229" t="s">
+      <c r="E35" s="228" t="s">
         <v>536</v>
       </c>
-      <c r="F35" s="229" t="s">
+      <c r="F35" s="228" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="21"/>
-      <c r="H35" s="227" t="s">
+      <c r="H35" s="226" t="s">
         <v>551</v>
       </c>
       <c r="I35" s="34"/>
-      <c r="J35" s="119" t="s">
+      <c r="J35" s="118" t="s">
         <v>550</v>
       </c>
       <c r="K35" s="19" t="s">
@@ -9332,10 +9337,10 @@
       <c r="AG35" s="58"/>
     </row>
     <row r="36" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A36" s="122" t="s">
+      <c r="A36" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="122" t="s">
         <v>176</v>
       </c>
       <c r="C36" s="16"/>
@@ -9343,14 +9348,14 @@
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="228" t="s">
+      <c r="H36" s="227" t="s">
         <v>301</v>
       </c>
       <c r="I36" s="35"/>
-      <c r="J36" s="119" t="s">
+      <c r="J36" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="K36" s="125" t="s">
+      <c r="K36" s="124" t="s">
         <v>255</v>
       </c>
       <c r="L36" s="19" t="s">
@@ -9381,22 +9386,22 @@
       <c r="AG36" s="58"/>
     </row>
     <row r="37" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A37" s="122" t="s">
+      <c r="A37" s="121" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="123" t="s">
+      <c r="B37" s="122" t="s">
         <v>177</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="240"/>
+      <c r="F37" s="239"/>
       <c r="G37" s="16"/>
-      <c r="H37" s="228" t="s">
+      <c r="H37" s="227" t="s">
         <v>553</v>
       </c>
       <c r="I37" s="25"/>
-      <c r="J37" s="115" t="s">
+      <c r="J37" s="114" t="s">
         <v>256</v>
       </c>
       <c r="K37" s="19" t="s">
@@ -9430,32 +9435,32 @@
       <c r="AG37" s="58"/>
     </row>
     <row r="38" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A38" s="122" t="s">
+      <c r="A38" s="121" t="s">
         <v>354</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="122" t="s">
         <v>337</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="233" t="s">
+      <c r="D38" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="233" t="s">
+      <c r="E38" s="232" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="233" t="s">
+      <c r="F38" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="G38" s="233" t="s">
+      <c r="G38" s="232" t="s">
         <v>311</v>
       </c>
-      <c r="H38" s="234" t="s">
+      <c r="H38" s="233" t="s">
         <v>301</v>
       </c>
       <c r="I38" s="25"/>
-      <c r="J38" s="115" t="s">
+      <c r="J38" s="114" t="s">
         <v>577</v>
       </c>
       <c r="K38" s="19" t="s">
@@ -9489,10 +9494,10 @@
       <c r="AG38" s="58"/>
     </row>
     <row r="39" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A39" s="122" t="s">
+      <c r="A39" s="121" t="s">
         <v>355</v>
       </c>
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="122" t="s">
         <v>338</v>
       </c>
       <c r="C39" s="16"/>
@@ -9500,11 +9505,11 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
-      <c r="H39" s="235" t="s">
+      <c r="H39" s="234" t="s">
         <v>553</v>
       </c>
       <c r="I39" s="25"/>
-      <c r="J39" s="115" t="s">
+      <c r="J39" s="114" t="s">
         <v>578</v>
       </c>
       <c r="K39" s="19" t="s">
@@ -9538,22 +9543,22 @@
       <c r="AG39" s="58"/>
     </row>
     <row r="40" spans="1:33" ht="18" customHeight="1">
-      <c r="A40" s="130"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="150"/>
+      <c r="H40" s="149"/>
       <c r="I40" s="39"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="154"/>
+      <c r="J40" s="120"/>
+      <c r="K40" s="153"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="146"/>
+      <c r="P40" s="145"/>
       <c r="Q40" s="58"/>
       <c r="R40" s="58"/>
       <c r="S40" s="58"/>
@@ -9573,7 +9578,7 @@
       <c r="AG40" s="58"/>
     </row>
     <row r="41" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A41" s="122" t="s">
+      <c r="A41" s="121" t="s">
         <v>219</v>
       </c>
       <c r="B41" s="13" t="s">
@@ -9592,11 +9597,11 @@
         <v>73</v>
       </c>
       <c r="G41" s="21"/>
-      <c r="H41" s="151" t="s">
+      <c r="H41" s="150" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="27"/>
-      <c r="J41" s="115" t="s">
+      <c r="J41" s="114" t="s">
         <v>140</v>
       </c>
       <c r="K41" s="20" t="s">
@@ -9630,7 +9635,7 @@
       <c r="AG41" s="58"/>
     </row>
     <row r="42" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A42" s="122" t="s">
+      <c r="A42" s="121" t="s">
         <v>220</v>
       </c>
       <c r="B42" s="13" t="s">
@@ -9641,11 +9646,11 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="137" t="s">
+      <c r="H42" s="136" t="s">
         <v>281</v>
       </c>
       <c r="I42" s="25"/>
-      <c r="J42" s="115" t="s">
+      <c r="J42" s="114" t="s">
         <v>142</v>
       </c>
       <c r="K42" s="19" t="s">
@@ -9654,7 +9659,7 @@
       <c r="L42" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M42" s="125"/>
+      <c r="M42" s="124"/>
       <c r="N42" s="14"/>
       <c r="O42" s="3" t="s">
         <v>5</v>
@@ -9679,7 +9684,7 @@
       <c r="AG42" s="58"/>
     </row>
     <row r="43" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A43" s="122" t="s">
+      <c r="A43" s="121" t="s">
         <v>221</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -9690,13 +9695,13 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="137" t="s">
+      <c r="H43" s="136" t="s">
         <v>121</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="J43" s="115" t="s">
+      <c r="J43" s="114" t="s">
         <v>143</v>
       </c>
       <c r="K43" s="19" t="s">
@@ -9705,10 +9710,10 @@
       <c r="L43" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M43" s="127" t="s">
+      <c r="M43" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N43" s="129"/>
+      <c r="N43" s="128"/>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -9732,7 +9737,7 @@
       <c r="AG43" s="58"/>
     </row>
     <row r="44" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A44" s="122" t="s">
+      <c r="A44" s="121" t="s">
         <v>222</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -9743,23 +9748,23 @@
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="137" t="s">
+      <c r="H44" s="136" t="s">
         <v>41</v>
       </c>
       <c r="I44" s="14"/>
-      <c r="J44" s="155" t="s">
+      <c r="J44" s="154" t="s">
         <v>385</v>
       </c>
-      <c r="K44" s="125" t="s">
+      <c r="K44" s="124" t="s">
         <v>303</v>
       </c>
-      <c r="L44" s="125" t="s">
+      <c r="L44" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="M44" s="127" t="s">
+      <c r="M44" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N44" s="129"/>
+      <c r="N44" s="128"/>
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
@@ -9783,7 +9788,7 @@
       <c r="AG44" s="58"/>
     </row>
     <row r="45" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A45" s="122" t="s">
+      <c r="A45" s="121" t="s">
         <v>223</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -9794,11 +9799,11 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="137" t="s">
+      <c r="H45" s="136" t="s">
         <v>124</v>
       </c>
       <c r="I45" s="14"/>
-      <c r="J45" s="115" t="s">
+      <c r="J45" s="114" t="s">
         <v>145</v>
       </c>
       <c r="K45" s="19" t="s">
@@ -9807,10 +9812,10 @@
       <c r="L45" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M45" s="127" t="s">
+      <c r="M45" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N45" s="129"/>
+      <c r="N45" s="128"/>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -9834,7 +9839,7 @@
       <c r="AG45" s="58"/>
     </row>
     <row r="46" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A46" s="122" t="s">
+      <c r="A46" s="121" t="s">
         <v>224</v>
       </c>
       <c r="B46" s="13" t="s">
@@ -9845,23 +9850,23 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="137" t="s">
+      <c r="H46" s="136" t="s">
         <v>387</v>
       </c>
       <c r="I46" s="14"/>
-      <c r="J46" s="115" t="s">
+      <c r="J46" s="114" t="s">
         <v>472</v>
       </c>
-      <c r="K46" s="148" t="s">
+      <c r="K46" s="147" t="s">
         <v>457</v>
       </c>
       <c r="L46" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M46" s="127" t="s">
+      <c r="M46" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N46" s="129"/>
+      <c r="N46" s="128"/>
       <c r="O46" s="3" t="s">
         <v>8</v>
       </c>
@@ -9885,7 +9890,7 @@
       <c r="AG46" s="58"/>
     </row>
     <row r="47" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A47" s="122" t="s">
+      <c r="A47" s="121" t="s">
         <v>356</v>
       </c>
       <c r="B47" s="13" t="s">
@@ -9896,21 +9901,21 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
       <c r="G47" s="21"/>
-      <c r="H47" s="137" t="s">
+      <c r="H47" s="136" t="s">
         <v>153</v>
       </c>
       <c r="I47" s="14"/>
-      <c r="J47" s="115" t="s">
+      <c r="J47" s="114" t="s">
         <v>288</v>
       </c>
-      <c r="K47" s="148" t="s">
+      <c r="K47" s="147" t="s">
         <v>289</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M47" s="127"/>
-      <c r="N47" s="129"/>
+      <c r="M47" s="126"/>
+      <c r="N47" s="128"/>
       <c r="O47" s="3" t="s">
         <v>5</v>
       </c>
@@ -9934,7 +9939,7 @@
       <c r="AG47" s="58"/>
     </row>
     <row r="48" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A48" s="122" t="s">
+      <c r="A48" s="121" t="s">
         <v>357</v>
       </c>
       <c r="B48" s="13" t="s">
@@ -9945,11 +9950,11 @@
       <c r="E48" s="31"/>
       <c r="F48" s="31"/>
       <c r="G48" s="16"/>
-      <c r="H48" s="137" t="s">
+      <c r="H48" s="136" t="s">
         <v>35</v>
       </c>
       <c r="I48" s="25"/>
-      <c r="J48" s="115" t="s">
+      <c r="J48" s="114" t="s">
         <v>129</v>
       </c>
       <c r="K48" s="19" t="s">
@@ -9958,8 +9963,8 @@
       <c r="L48" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M48" s="127"/>
-      <c r="N48" s="129"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="128"/>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
@@ -9983,7 +9988,7 @@
       <c r="AG48" s="58"/>
     </row>
     <row r="49" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A49" s="122" t="s">
+      <c r="A49" s="121" t="s">
         <v>225</v>
       </c>
       <c r="B49" s="13" t="s">
@@ -9994,23 +9999,23 @@
       <c r="E49" s="18"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="137" t="s">
+      <c r="H49" s="136" t="s">
         <v>439</v>
       </c>
       <c r="I49" s="27"/>
-      <c r="J49" s="115" t="s">
+      <c r="J49" s="114" t="s">
         <v>440</v>
       </c>
-      <c r="K49" s="166" t="s">
+      <c r="K49" s="165" t="s">
         <v>446</v>
       </c>
       <c r="L49" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M49" s="127" t="s">
+      <c r="M49" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N49" s="129"/>
+      <c r="N49" s="128"/>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -10034,7 +10039,7 @@
       <c r="AG49" s="58"/>
     </row>
     <row r="50" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A50" s="122" t="s">
+      <c r="A50" s="121" t="s">
         <v>226</v>
       </c>
       <c r="B50" s="13" t="s">
@@ -10045,11 +10050,11 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="137" t="s">
+      <c r="H50" s="136" t="s">
         <v>274</v>
       </c>
       <c r="I50" s="58"/>
-      <c r="J50" s="117" t="s">
+      <c r="J50" s="116" t="s">
         <v>130</v>
       </c>
       <c r="K50" s="19" t="s">
@@ -10058,10 +10063,10 @@
       <c r="L50" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M50" s="127" t="s">
+      <c r="M50" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N50" s="129"/>
+      <c r="N50" s="128"/>
       <c r="O50" s="3" t="s">
         <v>8</v>
       </c>
@@ -10085,7 +10090,7 @@
       <c r="AG50" s="58"/>
     </row>
     <row r="51" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A51" s="122" t="s">
+      <c r="A51" s="121" t="s">
         <v>227</v>
       </c>
       <c r="B51" s="13" t="s">
@@ -10095,24 +10100,24 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="137" t="s">
+      <c r="G51" s="128"/>
+      <c r="H51" s="136" t="s">
         <v>298</v>
       </c>
       <c r="I51" s="27"/>
-      <c r="J51" s="115" t="s">
+      <c r="J51" s="114" t="s">
         <v>300</v>
       </c>
-      <c r="K51" s="148" t="s">
+      <c r="K51" s="147" t="s">
         <v>299</v>
       </c>
       <c r="L51" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M51" s="127" t="s">
+      <c r="M51" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="129"/>
+      <c r="N51" s="128"/>
       <c r="O51" s="3" t="s">
         <v>8</v>
       </c>
@@ -10136,7 +10141,7 @@
       <c r="AG51" s="58"/>
     </row>
     <row r="52" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A52" s="122" t="s">
+      <c r="A52" s="121" t="s">
         <v>228</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -10147,11 +10152,11 @@
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="151" t="s">
+      <c r="H52" s="150" t="s">
         <v>131</v>
       </c>
       <c r="I52" s="33"/>
-      <c r="J52" s="117" t="s">
+      <c r="J52" s="116" t="s">
         <v>132</v>
       </c>
       <c r="K52" s="19" t="s">
@@ -10160,8 +10165,8 @@
       <c r="L52" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="127"/>
-      <c r="N52" s="129"/>
+      <c r="M52" s="126"/>
+      <c r="N52" s="128"/>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
@@ -10185,7 +10190,7 @@
       <c r="AG52" s="58"/>
     </row>
     <row r="53" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A53" s="122" t="s">
+      <c r="A53" s="121" t="s">
         <v>229</v>
       </c>
       <c r="B53" s="13" t="s">
@@ -10194,13 +10199,13 @@
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="241"/>
+      <c r="F53" s="240"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="137" t="s">
+      <c r="H53" s="136" t="s">
         <v>133</v>
       </c>
       <c r="I53" s="27"/>
-      <c r="J53" s="115" t="s">
+      <c r="J53" s="114" t="s">
         <v>295</v>
       </c>
       <c r="K53" s="20" t="s">
@@ -10209,8 +10214,8 @@
       <c r="L53" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="127"/>
-      <c r="N53" s="129"/>
+      <c r="M53" s="126"/>
+      <c r="N53" s="128"/>
       <c r="O53" s="3" t="s">
         <v>5</v>
       </c>
@@ -10234,7 +10239,7 @@
       <c r="AG53" s="58"/>
     </row>
     <row r="54" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A54" s="122" t="s">
+      <c r="A54" s="121" t="s">
         <v>358</v>
       </c>
       <c r="B54" s="13" t="s">
@@ -10246,20 +10251,20 @@
       <c r="D54" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="239" t="s">
+      <c r="E54" s="238" t="s">
         <v>536</v>
       </c>
-      <c r="F54" s="145" t="s">
+      <c r="F54" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="G54" s="145" t="s">
+      <c r="G54" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="164" t="s">
+      <c r="H54" s="163" t="s">
         <v>318</v>
       </c>
       <c r="I54" s="25"/>
-      <c r="J54" s="115" t="s">
+      <c r="J54" s="114" t="s">
         <v>321</v>
       </c>
       <c r="K54" s="19" t="s">
@@ -10268,8 +10273,8 @@
       <c r="L54" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="127"/>
-      <c r="N54" s="129"/>
+      <c r="M54" s="126"/>
+      <c r="N54" s="128"/>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
@@ -10293,7 +10298,7 @@
       <c r="AG54" s="58"/>
     </row>
     <row r="55" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A55" s="122" t="s">
+      <c r="A55" s="121" t="s">
         <v>230</v>
       </c>
       <c r="B55" s="13" t="s">
@@ -10304,11 +10309,11 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="164" t="s">
+      <c r="H55" s="163" t="s">
         <v>319</v>
       </c>
       <c r="I55" s="25"/>
-      <c r="J55" s="115" t="s">
+      <c r="J55" s="114" t="s">
         <v>322</v>
       </c>
       <c r="K55" s="19" t="s">
@@ -10317,8 +10322,8 @@
       <c r="L55" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="127"/>
-      <c r="N55" s="129"/>
+      <c r="M55" s="126"/>
+      <c r="N55" s="128"/>
       <c r="O55" s="3" t="s">
         <v>5</v>
       </c>
@@ -10342,7 +10347,7 @@
       <c r="AG55" s="58"/>
     </row>
     <row r="56" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A56" s="122" t="s">
+      <c r="A56" s="121" t="s">
         <v>231</v>
       </c>
       <c r="B56" s="13" t="s">
@@ -10353,11 +10358,11 @@
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="164" t="s">
+      <c r="H56" s="163" t="s">
         <v>320</v>
       </c>
       <c r="I56" s="25"/>
-      <c r="J56" s="115" t="s">
+      <c r="J56" s="114" t="s">
         <v>323</v>
       </c>
       <c r="K56" s="19" t="s">
@@ -10366,8 +10371,8 @@
       <c r="L56" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="M56" s="127"/>
-      <c r="N56" s="129"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="128"/>
       <c r="O56" s="3" t="s">
         <v>5</v>
       </c>
@@ -10391,22 +10396,22 @@
       <c r="AG56" s="58"/>
     </row>
     <row r="57" spans="1:33" ht="18" customHeight="1">
-      <c r="A57" s="138"/>
-      <c r="B57" s="138"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="138"/>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="138"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="138"/>
-      <c r="J57" s="138"/>
-      <c r="K57" s="138"/>
-      <c r="L57" s="138"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="138"/>
-      <c r="O57" s="122"/>
-      <c r="P57" s="138"/>
+      <c r="A57" s="137"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="121"/>
+      <c r="P57" s="137"/>
       <c r="Q57" s="58"/>
       <c r="R57" s="58"/>
       <c r="S57" s="58"/>
@@ -10426,7 +10431,7 @@
       <c r="AG57" s="58"/>
     </row>
     <row r="58" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A58" s="122" t="s">
+      <c r="A58" s="121" t="s">
         <v>359</v>
       </c>
       <c r="B58" s="13" t="s">
@@ -10435,21 +10440,21 @@
       <c r="C58" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="200" t="s">
+      <c r="D58" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="200" t="s">
+      <c r="E58" s="199" t="s">
         <v>536</v>
       </c>
-      <c r="F58" s="200" t="s">
+      <c r="F58" s="199" t="s">
         <v>73</v>
       </c>
       <c r="G58" s="21"/>
-      <c r="H58" s="153" t="s">
+      <c r="H58" s="152" t="s">
         <v>39</v>
       </c>
       <c r="I58" s="25"/>
-      <c r="J58" s="115" t="s">
+      <c r="J58" s="114" t="s">
         <v>144</v>
       </c>
       <c r="K58" s="19" t="s">
@@ -10483,7 +10488,7 @@
       <c r="AG58" s="58"/>
     </row>
     <row r="59" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A59" s="122" t="s">
+      <c r="A59" s="121" t="s">
         <v>232</v>
       </c>
       <c r="B59" s="13" t="s">
@@ -10494,11 +10499,11 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="21"/>
-      <c r="H59" s="153" t="s">
+      <c r="H59" s="152" t="s">
         <v>40</v>
       </c>
       <c r="I59" s="25"/>
-      <c r="J59" s="115" t="s">
+      <c r="J59" s="114" t="s">
         <v>123</v>
       </c>
       <c r="K59" s="19" t="s">
@@ -10507,7 +10512,7 @@
       <c r="L59" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M59" s="127" t="s">
+      <c r="M59" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N59" s="13"/>
@@ -10534,7 +10539,7 @@
       <c r="AG59" s="58"/>
     </row>
     <row r="60" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A60" s="122" t="s">
+      <c r="A60" s="121" t="s">
         <v>360</v>
       </c>
       <c r="B60" s="13" t="s">
@@ -10545,11 +10550,11 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
       <c r="G60" s="21"/>
-      <c r="H60" s="153" t="s">
+      <c r="H60" s="152" t="s">
         <v>302</v>
       </c>
       <c r="I60" s="25"/>
-      <c r="J60" s="115" t="s">
+      <c r="J60" s="114" t="s">
         <v>282</v>
       </c>
       <c r="K60" s="19" t="s">
@@ -10558,7 +10563,7 @@
       <c r="L60" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M60" s="127" t="s">
+      <c r="M60" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N60" s="13"/>
@@ -10585,7 +10590,7 @@
       <c r="AG60" s="58"/>
     </row>
     <row r="61" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A61" s="122" t="s">
+      <c r="A61" s="121" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="13" t="s">
@@ -10596,11 +10601,11 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
       <c r="G61" s="21"/>
-      <c r="H61" s="153" t="s">
+      <c r="H61" s="152" t="s">
         <v>152</v>
       </c>
       <c r="I61" s="25"/>
-      <c r="J61" s="115" t="s">
+      <c r="J61" s="114" t="s">
         <v>149</v>
       </c>
       <c r="K61" s="19" t="s">
@@ -10609,7 +10614,7 @@
       <c r="L61" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M61" s="127" t="s">
+      <c r="M61" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N61" s="13"/>
@@ -10636,7 +10641,7 @@
       <c r="AG61" s="58"/>
     </row>
     <row r="62" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A62" s="122" t="s">
+      <c r="A62" s="121" t="s">
         <v>234</v>
       </c>
       <c r="B62" s="13" t="s">
@@ -10647,11 +10652,11 @@
       <c r="E62" s="16"/>
       <c r="F62" s="16"/>
       <c r="G62" s="21"/>
-      <c r="H62" s="153" t="s">
+      <c r="H62" s="152" t="s">
         <v>283</v>
       </c>
       <c r="I62" s="25"/>
-      <c r="J62" s="115" t="s">
+      <c r="J62" s="114" t="s">
         <v>284</v>
       </c>
       <c r="K62" s="19" t="s">
@@ -10660,7 +10665,7 @@
       <c r="L62" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M62" s="127" t="s">
+      <c r="M62" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N62" s="13"/>
@@ -10687,7 +10692,7 @@
       <c r="AG62" s="58"/>
     </row>
     <row r="63" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A63" s="122" t="s">
+      <c r="A63" s="121" t="s">
         <v>361</v>
       </c>
       <c r="B63" s="13" t="s">
@@ -10698,11 +10703,11 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
       <c r="G63" s="21"/>
-      <c r="H63" s="153" t="s">
+      <c r="H63" s="152" t="s">
         <v>125</v>
       </c>
       <c r="I63" s="25"/>
-      <c r="J63" s="115" t="s">
+      <c r="J63" s="114" t="s">
         <v>148</v>
       </c>
       <c r="K63" s="19" t="s">
@@ -10711,7 +10716,7 @@
       <c r="L63" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M63" s="127" t="s">
+      <c r="M63" s="126" t="s">
         <v>287</v>
       </c>
       <c r="N63" s="13"/>
@@ -10738,7 +10743,7 @@
       <c r="AG63" s="58"/>
     </row>
     <row r="64" spans="1:33" ht="64.95" customHeight="1">
-      <c r="A64" s="122" t="s">
+      <c r="A64" s="121" t="s">
         <v>362</v>
       </c>
       <c r="B64" s="13" t="s">
@@ -10749,11 +10754,11 @@
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="153" t="s">
+      <c r="H64" s="152" t="s">
         <v>38</v>
       </c>
       <c r="I64" s="25"/>
-      <c r="J64" s="117" t="s">
+      <c r="J64" s="116" t="s">
         <v>388</v>
       </c>
       <c r="K64" s="19" t="s">
@@ -10762,7 +10767,7 @@
       <c r="L64" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M64" s="128" t="s">
+      <c r="M64" s="127" t="s">
         <v>287</v>
       </c>
       <c r="N64" s="13"/>
@@ -10789,7 +10794,7 @@
       <c r="AG64" s="58"/>
     </row>
     <row r="65" spans="1:34" ht="64.95" customHeight="1">
-      <c r="A65" s="122" t="s">
+      <c r="A65" s="121" t="s">
         <v>363</v>
       </c>
       <c r="B65" s="13" t="s">
@@ -10800,11 +10805,11 @@
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
       <c r="G65" s="16"/>
-      <c r="H65" s="153" t="s">
+      <c r="H65" s="152" t="s">
         <v>24</v>
       </c>
       <c r="I65" s="25"/>
-      <c r="J65" s="115" t="s">
+      <c r="J65" s="114" t="s">
         <v>126</v>
       </c>
       <c r="K65" s="19" t="s">
@@ -10813,7 +10818,7 @@
       <c r="L65" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M65" s="128" t="s">
+      <c r="M65" s="127" t="s">
         <v>287</v>
       </c>
       <c r="N65" s="13"/>
@@ -10840,7 +10845,7 @@
       <c r="AG65" s="58"/>
     </row>
     <row r="66" spans="1:34" ht="64.95" customHeight="1">
-      <c r="A66" s="122" t="s">
+      <c r="A66" s="121" t="s">
         <v>364</v>
       </c>
       <c r="B66" s="13" t="s">
@@ -10851,11 +10856,11 @@
       <c r="E66" s="31"/>
       <c r="F66" s="31"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="153" t="s">
+      <c r="H66" s="152" t="s">
         <v>37</v>
       </c>
       <c r="I66" s="25"/>
-      <c r="J66" s="115" t="s">
+      <c r="J66" s="114" t="s">
         <v>127</v>
       </c>
       <c r="K66" s="19" t="s">
@@ -10889,7 +10894,7 @@
       <c r="AG66" s="58"/>
     </row>
     <row r="67" spans="1:34" ht="64.95" customHeight="1">
-      <c r="A67" s="122" t="s">
+      <c r="A67" s="121" t="s">
         <v>365</v>
       </c>
       <c r="B67" s="13" t="s">
@@ -10900,11 +10905,11 @@
       <c r="E67" s="31"/>
       <c r="F67" s="31"/>
       <c r="G67" s="16"/>
-      <c r="H67" s="153" t="s">
+      <c r="H67" s="152" t="s">
         <v>33</v>
       </c>
       <c r="I67" s="25"/>
-      <c r="J67" s="115" t="s">
+      <c r="J67" s="114" t="s">
         <v>147</v>
       </c>
       <c r="K67" s="19" t="s">
@@ -10938,7 +10943,7 @@
       <c r="AG67" s="58"/>
     </row>
     <row r="68" spans="1:34" ht="64.95" customHeight="1">
-      <c r="A68" s="122" t="s">
+      <c r="A68" s="121" t="s">
         <v>366</v>
       </c>
       <c r="B68" s="13" t="s">
@@ -10949,11 +10954,11 @@
       <c r="E68" s="31"/>
       <c r="F68" s="31"/>
       <c r="G68" s="16"/>
-      <c r="H68" s="153" t="s">
+      <c r="H68" s="152" t="s">
         <v>34</v>
       </c>
       <c r="I68" s="25"/>
-      <c r="J68" s="115" t="s">
+      <c r="J68" s="114" t="s">
         <v>128</v>
       </c>
       <c r="K68" s="19" t="s">
@@ -10987,22 +10992,22 @@
       <c r="AG68" s="58"/>
     </row>
     <row r="69" spans="1:34" ht="18" customHeight="1">
-      <c r="A69" s="138"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="138"/>
-      <c r="G69" s="138"/>
-      <c r="H69" s="152"/>
-      <c r="I69" s="138"/>
-      <c r="J69" s="152"/>
-      <c r="K69" s="138"/>
-      <c r="L69" s="138"/>
-      <c r="M69" s="138"/>
-      <c r="N69" s="138"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="151"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="137"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="147"/>
+      <c r="P69" s="146"/>
       <c r="Q69" s="58"/>
       <c r="R69" s="58"/>
       <c r="S69" s="58"/>
@@ -11023,30 +11028,30 @@
       <c r="AH69" s="58"/>
     </row>
     <row r="70" spans="1:34" ht="75" customHeight="1">
-      <c r="A70" s="122" t="s">
+      <c r="A70" s="121" t="s">
         <v>367</v>
       </c>
-      <c r="B70" s="139" t="s">
+      <c r="B70" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="C70" s="110" t="s">
+      <c r="C70" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="D70" s="225" t="s">
+      <c r="D70" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="242" t="s">
+      <c r="E70" s="241" t="s">
         <v>536</v>
       </c>
-      <c r="F70" s="204" t="s">
+      <c r="F70" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="G70" s="125"/>
-      <c r="H70" s="201" t="s">
+      <c r="G70" s="124"/>
+      <c r="H70" s="200" t="s">
         <v>293</v>
       </c>
       <c r="I70" s="58"/>
-      <c r="J70" s="117" t="s">
+      <c r="J70" s="116" t="s">
         <v>473</v>
       </c>
       <c r="K70" s="19" t="s">
@@ -11055,7 +11060,7 @@
       <c r="L70" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M70" s="131" t="s">
+      <c r="M70" s="130" t="s">
         <v>285</v>
       </c>
       <c r="N70" s="14"/>
@@ -11083,10 +11088,10 @@
       <c r="AH70" s="58"/>
     </row>
     <row r="71" spans="1:34" ht="75" customHeight="1">
-      <c r="A71" s="122" t="s">
+      <c r="A71" s="121" t="s">
         <v>368</v>
       </c>
-      <c r="B71" s="139" t="s">
+      <c r="B71" s="138" t="s">
         <v>351</v>
       </c>
       <c r="C71" s="14"/>
@@ -11094,11 +11099,11 @@
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="202" t="s">
+      <c r="H71" s="201" t="s">
         <v>291</v>
       </c>
       <c r="I71" s="27"/>
-      <c r="J71" s="115" t="s">
+      <c r="J71" s="114" t="s">
         <v>146</v>
       </c>
       <c r="K71" s="19" t="s">
@@ -11107,7 +11112,7 @@
       <c r="L71" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="M71" s="128" t="s">
+      <c r="M71" s="127" t="s">
         <v>287</v>
       </c>
       <c r="N71" s="14"/>
@@ -11135,10 +11140,10 @@
       <c r="AH71" s="58"/>
     </row>
     <row r="72" spans="1:34" ht="75" customHeight="1">
-      <c r="A72" s="122" t="s">
+      <c r="A72" s="121" t="s">
         <v>369</v>
       </c>
-      <c r="B72" s="139" t="s">
+      <c r="B72" s="138" t="s">
         <v>352</v>
       </c>
       <c r="C72" s="14"/>
@@ -11146,11 +11151,11 @@
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
-      <c r="H72" s="202" t="s">
+      <c r="H72" s="201" t="s">
         <v>122</v>
       </c>
       <c r="I72" s="33"/>
-      <c r="J72" s="115" t="s">
+      <c r="J72" s="114" t="s">
         <v>141</v>
       </c>
       <c r="K72" s="19" t="s">
@@ -11185,32 +11190,32 @@
       <c r="AH72" s="58"/>
     </row>
     <row r="73" spans="1:34" ht="75" customHeight="1">
-      <c r="A73" s="122" t="s">
+      <c r="A73" s="121" t="s">
         <v>556</v>
       </c>
-      <c r="B73" s="139" t="s">
+      <c r="B73" s="138" t="s">
         <v>558</v>
       </c>
-      <c r="C73" s="110" t="s">
+      <c r="C73" s="109" t="s">
         <v>304</v>
       </c>
-      <c r="D73" s="225" t="s">
+      <c r="D73" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="E73" s="242" t="s">
+      <c r="E73" s="241" t="s">
         <v>536</v>
       </c>
-      <c r="F73" s="204" t="s">
+      <c r="F73" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="G73" s="204" t="s">
+      <c r="G73" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="H73" s="203" t="s">
+      <c r="H73" s="202" t="s">
         <v>329</v>
       </c>
       <c r="I73" s="26"/>
-      <c r="J73" s="115" t="s">
+      <c r="J73" s="114" t="s">
         <v>331</v>
       </c>
       <c r="K73" s="19" t="s">
@@ -11245,10 +11250,10 @@
       <c r="AH73" s="58"/>
     </row>
     <row r="74" spans="1:34" ht="75" customHeight="1">
-      <c r="A74" s="122" t="s">
+      <c r="A74" s="121" t="s">
         <v>557</v>
       </c>
-      <c r="B74" s="139" t="s">
+      <c r="B74" s="138" t="s">
         <v>559</v>
       </c>
       <c r="C74" s="14"/>
@@ -11256,11 +11261,11 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
-      <c r="H74" s="203" t="s">
+      <c r="H74" s="202" t="s">
         <v>330</v>
       </c>
       <c r="I74" s="26"/>
-      <c r="J74" s="115" t="s">
+      <c r="J74" s="114" t="s">
         <v>332</v>
       </c>
       <c r="K74" s="19" t="s">
@@ -11295,22 +11300,22 @@
       <c r="AH74" s="58"/>
     </row>
     <row r="75" spans="1:34" ht="18" customHeight="1">
-      <c r="A75" s="138"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="138"/>
-      <c r="E75" s="138"/>
-      <c r="F75" s="138"/>
-      <c r="G75" s="138"/>
-      <c r="H75" s="152"/>
-      <c r="I75" s="138"/>
-      <c r="J75" s="138"/>
-      <c r="K75" s="138"/>
-      <c r="L75" s="138"/>
-      <c r="M75" s="138"/>
-      <c r="N75" s="138"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="137"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="147"/>
+      <c r="P75" s="146"/>
       <c r="Q75" s="58"/>
       <c r="R75" s="58"/>
       <c r="S75" s="58"/>
@@ -11337,10 +11342,10 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="209" t="s">
+      <c r="G76" s="208" t="s">
         <v>118</v>
       </c>
-      <c r="H76" s="207" t="s">
+      <c r="H76" s="206" t="s">
         <v>305</v>
       </c>
       <c r="I76" s="33"/>
@@ -11378,7 +11383,7 @@
       <c r="E77" s="18"/>
       <c r="F77" s="18"/>
       <c r="G77" s="14"/>
-      <c r="H77" s="208" t="s">
+      <c r="H77" s="207" t="s">
         <v>306</v>
       </c>
       <c r="I77" s="27"/>
@@ -11416,7 +11421,7 @@
       <c r="E78" s="14"/>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
-      <c r="H78" s="207" t="s">
+      <c r="H78" s="206" t="s">
         <v>135</v>
       </c>
       <c r="I78" s="27"/>
@@ -11454,7 +11459,7 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
-      <c r="H79" s="207" t="s">
+      <c r="H79" s="206" t="s">
         <v>136</v>
       </c>
       <c r="I79" s="33"/>
@@ -11492,7 +11497,7 @@
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="14"/>
-      <c r="H80" s="155"/>
+      <c r="H80" s="154"/>
       <c r="I80" s="33"/>
       <c r="J80" s="18"/>
       <c r="K80" s="14"/>
@@ -11528,7 +11533,7 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c r="G81" s="14"/>
-      <c r="H81" s="155"/>
+      <c r="H81" s="154"/>
       <c r="I81" s="33"/>
       <c r="J81" s="18"/>
       <c r="K81" s="14"/>
@@ -11564,7 +11569,7 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="155"/>
+      <c r="H82" s="154"/>
       <c r="I82" s="33"/>
       <c r="J82" s="18"/>
       <c r="K82" s="14"/>
@@ -11600,7 +11605,7 @@
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="155"/>
+      <c r="H83" s="154"/>
       <c r="I83" s="33"/>
       <c r="J83" s="18"/>
       <c r="K83" s="14"/>
@@ -17904,953 +17909,953 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BB5D23-2B59-45DB-B0EA-5931F1212FFF}">
   <dimension ref="B3:W56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="156"/>
-    <col min="2" max="2" width="55.77734375" style="156" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" style="156" customWidth="1"/>
-    <col min="4" max="4" width="55.77734375" style="156" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" style="156" customWidth="1"/>
-    <col min="6" max="6" width="55.77734375" style="156" customWidth="1"/>
-    <col min="7" max="7" width="3.77734375" style="156" customWidth="1"/>
-    <col min="8" max="8" width="55.77734375" style="156" customWidth="1"/>
-    <col min="9" max="9" width="3.77734375" style="156" customWidth="1"/>
-    <col min="10" max="10" width="55.77734375" style="156" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" style="156" customWidth="1"/>
-    <col min="12" max="12" width="55.77734375" style="156" customWidth="1"/>
-    <col min="13" max="13" width="3.77734375" style="156" customWidth="1"/>
-    <col min="14" max="14" width="55.77734375" style="156" customWidth="1"/>
-    <col min="15" max="15" width="3.77734375" style="156" customWidth="1"/>
-    <col min="16" max="16" width="55.77734375" style="156" customWidth="1"/>
-    <col min="17" max="17" width="3.77734375" style="156" customWidth="1"/>
-    <col min="18" max="18" width="55.77734375" style="156" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="156"/>
-    <col min="20" max="20" width="55.77734375" style="156" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="156"/>
-    <col min="22" max="22" width="55.77734375" style="156" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="156"/>
+    <col min="1" max="1" width="8.88671875" style="155"/>
+    <col min="2" max="2" width="55.77734375" style="155" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" style="155" customWidth="1"/>
+    <col min="4" max="4" width="55.77734375" style="155" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="155" customWidth="1"/>
+    <col min="6" max="6" width="55.77734375" style="155" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="155" customWidth="1"/>
+    <col min="8" max="8" width="55.77734375" style="155" customWidth="1"/>
+    <col min="9" max="9" width="3.77734375" style="155" customWidth="1"/>
+    <col min="10" max="10" width="55.77734375" style="155" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" style="155" customWidth="1"/>
+    <col min="12" max="12" width="55.77734375" style="155" customWidth="1"/>
+    <col min="13" max="13" width="3.77734375" style="155" customWidth="1"/>
+    <col min="14" max="14" width="55.77734375" style="155" customWidth="1"/>
+    <col min="15" max="15" width="3.77734375" style="155" customWidth="1"/>
+    <col min="16" max="16" width="55.77734375" style="155" customWidth="1"/>
+    <col min="17" max="17" width="3.77734375" style="155" customWidth="1"/>
+    <col min="18" max="18" width="55.77734375" style="155" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="155"/>
+    <col min="20" max="20" width="55.77734375" style="155" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="155"/>
+    <col min="22" max="22" width="55.77734375" style="155" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="155"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="36.6" customHeight="1">
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="211" t="s">
+      <c r="D3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="223" t="s">
+      <c r="F3" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="223" t="s">
+      <c r="H3" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="211" t="s">
+      <c r="J3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="211" t="s">
+      <c r="N3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="P3" s="211" t="s">
+      <c r="P3" s="210" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:23" ht="24.6" customHeight="1">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="211" t="s">
         <v>373</v>
       </c>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="211" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="216" t="s">
+      <c r="F4" s="215" t="s">
         <v>411</v>
       </c>
-      <c r="H4" s="216" t="s">
+      <c r="H4" s="215" t="s">
         <v>544</v>
       </c>
-      <c r="J4" s="212" t="s">
+      <c r="J4" s="211" t="s">
         <v>379</v>
       </c>
-      <c r="L4" s="212" t="s">
+      <c r="L4" s="211" t="s">
         <v>381</v>
       </c>
-      <c r="N4" s="212" t="s">
+      <c r="N4" s="211" t="s">
         <v>382</v>
       </c>
-      <c r="P4" s="212" t="s">
+      <c r="P4" s="211" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="60" customHeight="1">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="212" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="213" t="s">
+      <c r="D5" s="212" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="217" t="s">
+      <c r="F5" s="216" t="s">
         <v>419</v>
       </c>
-      <c r="H5" s="217" t="s">
+      <c r="H5" s="216" t="s">
         <v>545</v>
       </c>
-      <c r="J5" s="213" t="s">
+      <c r="J5" s="212" t="s">
         <v>420</v>
       </c>
-      <c r="L5" s="212" t="s">
+      <c r="L5" s="211" t="s">
         <v>380</v>
       </c>
-      <c r="N5" s="213" t="s">
+      <c r="N5" s="212" t="s">
         <v>421</v>
       </c>
-      <c r="P5" s="213" t="s">
+      <c r="P5" s="212" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="115.05" customHeight="1">
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="212" t="s">
         <v>523</v>
       </c>
-      <c r="D6" s="213" t="s">
+      <c r="D6" s="212" t="s">
         <v>392</v>
       </c>
-      <c r="F6" s="217" t="s">
+      <c r="F6" s="216" t="s">
         <v>412</v>
       </c>
-      <c r="H6" s="217" t="s">
+      <c r="H6" s="216" t="s">
         <v>546</v>
       </c>
-      <c r="J6" s="213" t="s">
+      <c r="J6" s="212" t="s">
         <v>393</v>
       </c>
-      <c r="L6" s="213" t="s">
+      <c r="L6" s="212" t="s">
         <v>394</v>
       </c>
-      <c r="N6" s="213" t="s">
+      <c r="N6" s="212" t="s">
         <v>395</v>
       </c>
-      <c r="P6" s="213" t="s">
+      <c r="P6" s="212" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B7" s="212" t="s">
+      <c r="B7" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="F7" s="216" t="s">
+      <c r="F7" s="215" t="s">
         <v>444</v>
       </c>
-      <c r="H7" s="216" t="s">
+      <c r="H7" s="215" t="s">
         <v>444</v>
       </c>
-      <c r="J7" s="212" t="s">
+      <c r="J7" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="L7" s="212" t="s">
+      <c r="L7" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="N7" s="212" t="s">
+      <c r="N7" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="P7" s="212" t="s">
+      <c r="P7" s="211" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B8" s="212" t="s">
+      <c r="B8" s="211" t="s">
         <v>417</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="212" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="217" t="s">
+      <c r="F8" s="216" t="s">
         <v>417</v>
       </c>
-      <c r="H8" s="217" t="s">
+      <c r="H8" s="216" t="s">
         <v>417</v>
       </c>
-      <c r="J8" s="213" t="s">
+      <c r="J8" s="212" t="s">
         <v>416</v>
       </c>
-      <c r="L8" s="213" t="s">
+      <c r="L8" s="212" t="s">
         <v>417</v>
       </c>
-      <c r="N8" s="213" t="s">
+      <c r="N8" s="212" t="s">
         <v>539</v>
       </c>
-      <c r="P8" s="213" t="s">
+      <c r="P8" s="212" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="D9" s="213" t="s">
+      <c r="D9" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="F9" s="217" t="s">
+      <c r="F9" s="216" t="s">
         <v>538</v>
       </c>
-      <c r="H9" s="217" t="s">
+      <c r="H9" s="216" t="s">
         <v>538</v>
       </c>
-      <c r="J9" s="213" t="s">
+      <c r="J9" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="L9" s="213" t="s">
+      <c r="L9" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="N9" s="213" t="s">
+      <c r="N9" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="P9" s="213" t="s">
+      <c r="P9" s="212" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B10" s="212"/>
-      <c r="D10" s="213"/>
-      <c r="F10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="J10" s="213"/>
-      <c r="L10" s="213"/>
-      <c r="N10" s="213"/>
-      <c r="P10" s="213"/>
+      <c r="B10" s="211"/>
+      <c r="D10" s="212"/>
+      <c r="F10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="J10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="N10" s="212"/>
+      <c r="P10" s="212"/>
     </row>
     <row r="11" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="D11" s="212" t="s">
+      <c r="D11" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="F11" s="216" t="s">
+      <c r="F11" s="215" t="s">
         <v>438</v>
       </c>
-      <c r="H11" s="216" t="s">
+      <c r="H11" s="215" t="s">
         <v>438</v>
       </c>
-      <c r="J11" s="212" t="s">
+      <c r="J11" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="L11" s="212" t="s">
+      <c r="L11" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="N11" s="212" t="s">
+      <c r="N11" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="P11" s="212" t="s">
+      <c r="P11" s="211" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B12" s="214" t="s">
+      <c r="B12" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="D12" s="214" t="s">
+      <c r="D12" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="217" t="s">
         <v>285</v>
       </c>
-      <c r="H12" s="218" t="s">
+      <c r="H12" s="217" t="s">
         <v>285</v>
       </c>
-      <c r="J12" s="214" t="s">
+      <c r="J12" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="L12" s="214" t="s">
+      <c r="L12" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="N12" s="214" t="s">
+      <c r="N12" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="P12" s="214" t="s">
+      <c r="P12" s="213" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="60" customHeight="1">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="212" t="s">
         <v>447</v>
       </c>
-      <c r="D13" s="213" t="s">
+      <c r="D13" s="212" t="s">
         <v>470</v>
       </c>
-      <c r="F13" s="217" t="s">
+      <c r="F13" s="216" t="s">
         <v>448</v>
       </c>
-      <c r="H13" s="217" t="s">
+      <c r="H13" s="216" t="s">
         <v>547</v>
       </c>
-      <c r="J13" s="213" t="s">
+      <c r="J13" s="212" t="s">
         <v>449</v>
       </c>
-      <c r="L13" s="213" t="s">
+      <c r="L13" s="212" t="s">
         <v>450</v>
       </c>
-      <c r="N13" s="212" t="s">
+      <c r="N13" s="211" t="s">
         <v>451</v>
       </c>
-      <c r="P13" s="213" t="s">
+      <c r="P13" s="212" t="s">
         <v>452</v>
       </c>
-      <c r="W13" s="210"/>
+      <c r="W13" s="209"/>
     </row>
     <row r="14" spans="2:23" ht="25.05" customHeight="1">
-      <c r="B14" s="215" t="s">
+      <c r="B14" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="D14" s="215" t="s">
+      <c r="D14" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="F14" s="219" t="s">
+      <c r="F14" s="218" t="s">
         <v>377</v>
       </c>
-      <c r="H14" s="219" t="s">
+      <c r="H14" s="218" t="s">
         <v>377</v>
       </c>
-      <c r="J14" s="215" t="s">
+      <c r="J14" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="L14" s="215" t="s">
+      <c r="L14" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="N14" s="215" t="s">
+      <c r="N14" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="P14" s="215" t="s">
+      <c r="P14" s="214" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="36.6" customHeight="1">
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="211" t="s">
+      <c r="D17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="211" t="s">
+      <c r="F17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="211" t="s">
+      <c r="H17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="211" t="s">
+      <c r="J17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="211" t="s">
+      <c r="L17" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="211" t="s">
+      <c r="N17" s="210" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="24.6" customHeight="1">
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="211" t="s">
         <v>383</v>
       </c>
-      <c r="D18" s="212" t="s">
+      <c r="D18" s="211" t="s">
         <v>384</v>
       </c>
-      <c r="F18" s="212" t="s">
+      <c r="F18" s="211" t="s">
         <v>565</v>
       </c>
-      <c r="H18" s="212" t="s">
+      <c r="H18" s="211" t="s">
         <v>566</v>
       </c>
-      <c r="J18" s="212" t="s">
+      <c r="J18" s="211" t="s">
         <v>386</v>
       </c>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="211" t="s">
         <v>567</v>
       </c>
-      <c r="N18" s="212" t="s">
+      <c r="N18" s="211" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="60" customHeight="1">
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="212" t="s">
         <v>425</v>
       </c>
-      <c r="D19" s="213" t="s">
+      <c r="D19" s="212" t="s">
         <v>423</v>
       </c>
-      <c r="F19" s="213" t="s">
+      <c r="F19" s="212" t="s">
         <v>426</v>
       </c>
-      <c r="H19" s="213" t="s">
+      <c r="H19" s="212" t="s">
         <v>428</v>
       </c>
-      <c r="J19" s="213" t="s">
+      <c r="J19" s="212" t="s">
         <v>443</v>
       </c>
-      <c r="L19" s="213" t="s">
+      <c r="L19" s="212" t="s">
         <v>433</v>
       </c>
-      <c r="N19" s="213" t="s">
+      <c r="N19" s="212" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="115.05" customHeight="1">
-      <c r="B20" s="213" t="s">
+      <c r="B20" s="212" t="s">
         <v>397</v>
       </c>
-      <c r="D20" s="213" t="s">
+      <c r="D20" s="212" t="s">
         <v>399</v>
       </c>
-      <c r="F20" s="213" t="s">
+      <c r="F20" s="212" t="s">
         <v>400</v>
       </c>
-      <c r="H20" s="213" t="s">
+      <c r="H20" s="212" t="s">
         <v>401</v>
       </c>
-      <c r="J20" s="236" t="s">
+      <c r="J20" s="235" t="s">
         <v>441</v>
       </c>
-      <c r="L20" s="220" t="s">
+      <c r="L20" s="219" t="s">
         <v>408</v>
       </c>
-      <c r="N20" s="236" t="s">
+      <c r="N20" s="235" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="D21" s="212" t="s">
+      <c r="D21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="F21" s="212" t="s">
+      <c r="F21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="H21" s="212" t="s">
+      <c r="H21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="J21" s="212" t="s">
+      <c r="J21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="L21" s="212" t="s">
+      <c r="L21" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="N21" s="212" t="s">
+      <c r="N21" s="211" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B22" s="212" t="s">
+      <c r="B22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="D22" s="212" t="s">
+      <c r="D22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="F22" s="212" t="s">
+      <c r="F22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="H22" s="212" t="s">
+      <c r="H22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="J22" s="212" t="s">
+      <c r="J22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="L22" s="212" t="s">
+      <c r="L22" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="N22" s="212" t="s">
+      <c r="N22" s="211" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B23" s="212" t="s">
+      <c r="B23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="D23" s="212" t="s">
+      <c r="D23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="F23" s="212" t="s">
+      <c r="F23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="H23" s="212" t="s">
+      <c r="H23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="J23" s="212" t="s">
+      <c r="J23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="L23" s="212" t="s">
+      <c r="L23" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="N23" s="212" t="s">
+      <c r="N23" s="211" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="F24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="N24" s="212"/>
+      <c r="B24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="L24" s="211"/>
+      <c r="N24" s="211"/>
     </row>
     <row r="25" spans="2:14" ht="24.6" customHeight="1">
-      <c r="B25" s="212" t="s">
+      <c r="B25" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="D25" s="212" t="s">
+      <c r="D25" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="F25" s="212" t="s">
+      <c r="F25" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="H25" s="212" t="s">
+      <c r="H25" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="J25" s="212" t="s">
+      <c r="J25" s="211" t="s">
         <v>438</v>
       </c>
-      <c r="L25" s="212" t="s">
+      <c r="L25" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="N25" s="212" t="s">
+      <c r="N25" s="211" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="24.6" customHeight="1">
-      <c r="B26" s="214" t="s">
+      <c r="B26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="D26" s="214" t="s">
+      <c r="D26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="F26" s="214" t="s">
+      <c r="F26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="214" t="s">
+      <c r="H26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="J26" s="214" t="s">
+      <c r="J26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="L26" s="214" t="s">
+      <c r="L26" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="N26" s="214" t="s">
+      <c r="N26" s="213" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="60" customHeight="1">
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="212" t="s">
         <v>453</v>
       </c>
-      <c r="D27" s="213" t="s">
+      <c r="D27" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="F27" s="213" t="s">
+      <c r="F27" s="212" t="s">
         <v>456</v>
       </c>
-      <c r="H27" s="213" t="s">
+      <c r="H27" s="212" t="s">
         <v>458</v>
       </c>
-      <c r="J27" s="213" t="s">
+      <c r="J27" s="212" t="s">
         <v>445</v>
       </c>
-      <c r="L27" s="213" t="s">
+      <c r="L27" s="212" t="s">
         <v>465</v>
       </c>
-      <c r="N27" s="213" t="s">
+      <c r="N27" s="212" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B28" s="215" t="s">
+      <c r="B28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="215" t="s">
+      <c r="D28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="F28" s="215" t="s">
+      <c r="F28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="H28" s="215" t="s">
+      <c r="H28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="J28" s="215" t="s">
+      <c r="J28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="L28" s="215" t="s">
+      <c r="L28" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="N28" s="215" t="s">
+      <c r="N28" s="214" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="2:14" s="157" customFormat="1" ht="36.6" customHeight="1">
-      <c r="B31" s="211" t="s">
+    <row r="31" spans="2:14" s="156" customFormat="1" ht="36.6" customHeight="1">
+      <c r="B31" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="156"/>
-      <c r="D31" s="211" t="s">
+      <c r="C31" s="155"/>
+      <c r="D31" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="156"/>
-      <c r="F31" s="211" t="s">
+      <c r="E31" s="155"/>
+      <c r="F31" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="156"/>
-      <c r="H31" s="224" t="s">
+      <c r="G31" s="155"/>
+      <c r="H31" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="156"/>
-      <c r="J31" s="211" t="s">
+      <c r="I31" s="155"/>
+      <c r="J31" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="156"/>
-      <c r="L31" s="211" t="s">
+      <c r="K31" s="155"/>
+      <c r="L31" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="211" t="s">
+      <c r="N31" s="210" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="24.6" customHeight="1">
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="211" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="212" t="s">
+      <c r="D32" s="211" t="s">
         <v>390</v>
       </c>
-      <c r="F32" s="212" t="s">
+      <c r="F32" s="211" t="s">
         <v>391</v>
       </c>
-      <c r="H32" s="213" t="s">
+      <c r="H32" s="212" t="s">
         <v>511</v>
       </c>
-      <c r="J32" s="212" t="s">
+      <c r="J32" s="211" t="s">
         <v>512</v>
       </c>
-      <c r="L32" s="212" t="s">
+      <c r="L32" s="211" t="s">
         <v>569</v>
       </c>
-      <c r="N32" s="212" t="s">
+      <c r="N32" s="211" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="60" customHeight="1">
-      <c r="B33" s="213" t="s">
+      <c r="B33" s="212" t="s">
         <v>424</v>
       </c>
-      <c r="D33" s="213" t="s">
+      <c r="D33" s="212" t="s">
         <v>427</v>
       </c>
-      <c r="F33" s="213" t="s">
+      <c r="F33" s="212" t="s">
         <v>429</v>
       </c>
-      <c r="H33" s="213" t="s">
+      <c r="H33" s="212" t="s">
         <v>430</v>
       </c>
-      <c r="J33" s="213" t="s">
+      <c r="J33" s="212" t="s">
         <v>431</v>
       </c>
-      <c r="L33" s="213" t="s">
+      <c r="L33" s="212" t="s">
         <v>432</v>
       </c>
-      <c r="N33" s="213" t="s">
+      <c r="N33" s="212" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="115.05" customHeight="1">
-      <c r="B34" s="213" t="s">
+      <c r="B34" s="212" t="s">
         <v>398</v>
       </c>
-      <c r="D34" s="213" t="s">
+      <c r="D34" s="212" t="s">
         <v>402</v>
       </c>
-      <c r="F34" s="213" t="s">
+      <c r="F34" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="H34" s="213" t="s">
+      <c r="H34" s="212" t="s">
         <v>404</v>
       </c>
-      <c r="J34" s="213" t="s">
+      <c r="J34" s="212" t="s">
         <v>405</v>
       </c>
-      <c r="L34" s="213" t="s">
+      <c r="L34" s="212" t="s">
         <v>406</v>
       </c>
-      <c r="N34" s="220" t="s">
+      <c r="N34" s="219" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B35" s="212" t="s">
+      <c r="B35" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="D35" s="212" t="s">
+      <c r="D35" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="F35" s="212" t="s">
+      <c r="F35" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="H35" s="213" t="s">
+      <c r="H35" s="212" t="s">
         <v>444</v>
       </c>
-      <c r="J35" s="212" t="s">
+      <c r="J35" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="L35" s="212" t="s">
+      <c r="L35" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="N35" s="212" t="s">
+      <c r="N35" s="211" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B36" s="212" t="s">
+      <c r="B36" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="F36" s="212" t="s">
+      <c r="F36" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="H36" s="213" t="s">
+      <c r="H36" s="212" t="s">
         <v>370</v>
       </c>
-      <c r="J36" s="212" t="s">
+      <c r="J36" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="L36" s="212" t="s">
+      <c r="L36" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="N36" s="212" t="s">
+      <c r="N36" s="211" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B37" s="212" t="s">
+      <c r="B37" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="D37" s="212" t="s">
+      <c r="D37" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="F37" s="212" t="s">
+      <c r="F37" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="H37" s="213" t="s">
+      <c r="H37" s="212" t="s">
         <v>538</v>
       </c>
-      <c r="J37" s="212" t="s">
+      <c r="J37" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="L37" s="212" t="s">
+      <c r="L37" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="N37" s="212" t="s">
+      <c r="N37" s="211" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B38" s="212"/>
-      <c r="D38" s="212"/>
-      <c r="F38" s="212"/>
-      <c r="H38" s="213"/>
-      <c r="J38" s="212"/>
-      <c r="L38" s="212"/>
-      <c r="N38" s="212"/>
+      <c r="B38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="H38" s="212"/>
+      <c r="J38" s="211"/>
+      <c r="L38" s="211"/>
+      <c r="N38" s="211"/>
     </row>
     <row r="39" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B39" s="212" t="s">
+      <c r="B39" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="D39" s="212" t="s">
+      <c r="D39" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="F39" s="212" t="s">
+      <c r="F39" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="H39" s="213" t="s">
+      <c r="H39" s="212" t="s">
         <v>371</v>
       </c>
-      <c r="J39" s="212" t="s">
+      <c r="J39" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="L39" s="212" t="s">
+      <c r="L39" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="N39" s="212" t="s">
+      <c r="N39" s="211" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="214" t="s">
+      <c r="D40" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="214" t="s">
+      <c r="F40" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="H40" s="221" t="s">
+      <c r="H40" s="220" t="s">
         <v>287</v>
       </c>
-      <c r="J40" s="214" t="s">
+      <c r="J40" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="L40" s="214" t="s">
+      <c r="L40" s="213" t="s">
         <v>287</v>
       </c>
-      <c r="N40" s="214" t="s">
+      <c r="N40" s="213" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="60" customHeight="1">
-      <c r="B41" s="213" t="s">
+      <c r="B41" s="212" t="s">
         <v>454</v>
       </c>
-      <c r="D41" s="213" t="s">
+      <c r="D41" s="212" t="s">
         <v>459</v>
       </c>
-      <c r="F41" s="213" t="s">
+      <c r="F41" s="212" t="s">
         <v>460</v>
       </c>
-      <c r="H41" s="213" t="s">
+      <c r="H41" s="212" t="s">
         <v>461</v>
       </c>
-      <c r="J41" s="213" t="s">
+      <c r="J41" s="212" t="s">
         <v>462</v>
       </c>
-      <c r="L41" s="213" t="s">
+      <c r="L41" s="212" t="s">
         <v>463</v>
       </c>
-      <c r="N41" s="213" t="s">
+      <c r="N41" s="212" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="25.05" customHeight="1">
-      <c r="B42" s="215" t="s">
+      <c r="B42" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="D42" s="215" t="s">
+      <c r="D42" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="F42" s="215" t="s">
+      <c r="F42" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="H42" s="222" t="s">
+      <c r="H42" s="221" t="s">
         <v>377</v>
       </c>
-      <c r="J42" s="215" t="s">
+      <c r="J42" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="L42" s="215" t="s">
+      <c r="L42" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="N42" s="215" t="s">
+      <c r="N42" s="214" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="36.6" customHeight="1">
-      <c r="B45" s="211" t="s">
+      <c r="B45" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="157"/>
-      <c r="D45" s="211" t="s">
+      <c r="C45" s="156"/>
+      <c r="D45" s="210" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="24.6" customHeight="1">
-      <c r="B46" s="212" t="s">
+      <c r="B46" s="211" t="s">
         <v>571</v>
       </c>
-      <c r="D46" s="212" t="s">
+      <c r="D46" s="211" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="60" customHeight="1">
-      <c r="B47" s="213" t="s">
+      <c r="B47" s="212" t="s">
         <v>435</v>
       </c>
-      <c r="D47" s="213" t="s">
+      <c r="D47" s="212" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="115.05" customHeight="1">
-      <c r="B48" s="220" t="s">
+      <c r="B48" s="219" t="s">
         <v>409</v>
       </c>
-      <c r="D48" s="220" t="s">
+      <c r="D48" s="219" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B49" s="212" t="s">
+      <c r="B49" s="211" t="s">
         <v>444</v>
       </c>
-      <c r="D49" s="212" t="s">
+      <c r="D49" s="211" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B50" s="212" t="s">
+      <c r="B50" s="211" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="212" t="s">
+      <c r="D50" s="211" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B51" s="212" t="s">
+      <c r="B51" s="211" t="s">
         <v>538</v>
       </c>
-      <c r="D51" s="212" t="s">
+      <c r="D51" s="211" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B52" s="212"/>
-      <c r="D52" s="212"/>
+      <c r="B52" s="211"/>
+      <c r="D52" s="211"/>
     </row>
     <row r="53" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B53" s="212" t="s">
+      <c r="B53" s="211" t="s">
         <v>371</v>
       </c>
-      <c r="D53" s="212" t="s">
+      <c r="D53" s="211" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B54" s="214" t="s">
+      <c r="B54" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="D54" s="214" t="s">
+      <c r="D54" s="213" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="60" customHeight="1">
-      <c r="B55" s="213" t="s">
+      <c r="B55" s="212" t="s">
         <v>467</v>
       </c>
-      <c r="D55" s="213" t="s">
+      <c r="D55" s="212" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="25.05" customHeight="1">
-      <c r="B56" s="215" t="s">
+      <c r="B56" s="214" t="s">
         <v>377</v>
       </c>
-      <c r="D56" s="215" t="s">
+      <c r="D56" s="214" t="s">
         <v>377</v>
       </c>
     </row>
@@ -18891,7 +18896,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.8"/>
@@ -18961,21 +18966,21 @@
       <c r="Z2" s="41"/>
     </row>
     <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="293"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43"/>
       <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:26" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="293"/>
-      <c r="C4" s="294"/>
-      <c r="D4" s="294"/>
-      <c r="E4" s="295"/>
+      <c r="B4" s="294"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="296"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>

--- a/techlandbd.com_Testing_Documentation.xlsx
+++ b/techlandbd.com_Testing_Documentation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\SQA\Git Repository\Manual Project\manual_testing_techlandbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53834533-5B07-492F-A126-0FFB44C611C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0FE3B-5463-4AAE-AC26-82DDA2B24DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="6" r:id="rId1"/>
     <sheet name="Mind Maps" sheetId="7" r:id="rId2"/>
-    <sheet name="Report" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Cases" sheetId="1" r:id="rId4"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId3"/>
+    <sheet name="Report" sheetId="5" r:id="rId4"/>
     <sheet name="Bug Reports" sheetId="8" r:id="rId5"/>
     <sheet name="Test Metrics" sheetId="4" r:id="rId6"/>
   </sheets>
@@ -1617,13 +1617,6 @@
   </si>
   <si>
     <t>Resources</t>
-  </si>
-  <si>
-    <t>1. Test Plan
-2. Mind Maps                                                                                                                                                         3. Report
-4. Test Cases
-5. Bug Reports
-6. Test Metrics</t>
   </si>
   <si>
     <t>Tools:</t>
@@ -2124,6 +2117,13 @@
   </si>
   <si>
     <t xml:space="preserve">"Enter" key will working </t>
+  </si>
+  <si>
+    <t>1. Test Plan
+2. Mind Maps                                                                                                                                                         3. Test Cases
+4. Report
+5. Bug Reports
+6. Test Metrics</t>
   </si>
 </sst>
 </file>
@@ -4014,6 +4014,40 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4039,45 +4073,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5692,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA056F1E-F4DB-47F3-946D-71859367A7F5}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5713,7 +5713,7 @@
         <v>481</v>
       </c>
       <c r="C1" s="185" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="166" customFormat="1">
@@ -5721,44 +5721,44 @@
         <v>480</v>
       </c>
       <c r="B2" s="170" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C2" s="174" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="166" customFormat="1">
       <c r="A3" s="172" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" s="170" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" s="174" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="166" customFormat="1">
       <c r="A4" s="172" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="182" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="174" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="166" customFormat="1">
       <c r="A5" s="172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" s="171"/>
       <c r="C5" s="174"/>
     </row>
     <row r="6" spans="1:5" s="166" customFormat="1">
       <c r="A6" s="173" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B6" s="171"/>
       <c r="C6" s="175"/>
@@ -5774,27 +5774,27 @@
         <v>476</v>
       </c>
       <c r="D7" s="185" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="150" customHeight="1">
       <c r="A8" s="168" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="168" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D8" s="190"/>
     </row>
     <row r="9" spans="1:5" ht="25.05" customHeight="1">
       <c r="A9" s="185" t="s">
+        <v>496</v>
+      </c>
+      <c r="B9" s="185" t="s">
         <v>497</v>
-      </c>
-      <c r="B9" s="185" t="s">
-        <v>498</v>
       </c>
       <c r="C9" s="185" t="s">
         <v>477</v>
@@ -5806,57 +5806,57 @@
     </row>
     <row r="10" spans="1:5" ht="150" customHeight="1">
       <c r="A10" s="169" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C10" s="229" t="s">
-        <v>482</v>
+        <v>579</v>
       </c>
       <c r="D10" s="168" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.05" customHeight="1">
       <c r="A11" s="188" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B11" s="187" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="186" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.05" customHeight="1">
       <c r="A12" s="176" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B12" s="176" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C12" s="179" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="27.6">
       <c r="A13" s="177" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B13" s="177" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13" s="179" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="27.6" customHeight="1">
       <c r="A14" s="178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B14" s="178" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C14" s="180"/>
     </row>
@@ -5870,7 +5870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA36809-59C2-4AF4-B418-6C9E1F814D41}">
   <dimension ref="D4:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -5894,1672 +5894,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D930F6-31E2-47A1-AA0F-1745B9D006F0}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="40.6640625" customWidth="1"/>
-    <col min="13" max="13" width="28.109375" customWidth="1"/>
-    <col min="14" max="14" width="25.77734375" customWidth="1"/>
-    <col min="15" max="15" width="30.6640625" customWidth="1"/>
-    <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="18" width="14.33203125" customWidth="1"/>
-    <col min="19" max="26" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:26" ht="8.25" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="246" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="247"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="248"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B5" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="249" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="250"/>
-      <c r="E5" s="250"/>
-      <c r="F5" s="250"/>
-      <c r="G5" s="251"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B6" s="113" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="249" t="s">
-        <v>573</v>
-      </c>
-      <c r="D6" s="250"/>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="251"/>
-      <c r="I6" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B7" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="251"/>
-      <c r="I7" s="76">
-        <f>C15</f>
-        <v>38</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="78"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B8" s="112" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="250"/>
-      <c r="E8" s="250"/>
-      <c r="F8" s="250"/>
-      <c r="G8" s="251"/>
-      <c r="I8" s="76">
-        <f>D15</f>
-        <v>24</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="79"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B9" s="112" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="249" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="250"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="251"/>
-      <c r="I9" s="76">
-        <f>E15</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="74"/>
-      <c r="L9" s="242" t="s">
-        <v>83</v>
-      </c>
-      <c r="M9" s="125" t="s">
-        <v>84</v>
-      </c>
-      <c r="N9" s="125" t="s">
-        <v>510</v>
-      </c>
-      <c r="O9" s="198" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="80"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B10" s="112" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="249" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="250"/>
-      <c r="E10" s="250"/>
-      <c r="F10" s="250"/>
-      <c r="G10" s="251"/>
-      <c r="I10" s="76">
-        <f>F15</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="78"/>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="252" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" s="253"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="254"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="255"/>
-      <c r="C12" s="256"/>
-      <c r="D12" s="256"/>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="257"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="81" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-    </row>
-    <row r="14" spans="1:26" ht="48" customHeight="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="236">
-        <v>62</v>
-      </c>
-      <c r="C14" s="107">
-        <f>'Test Cases'!Q2</f>
-        <v>38</v>
-      </c>
-      <c r="D14" s="100">
-        <f>'Test Cases'!Q3</f>
-        <v>24</v>
-      </c>
-      <c r="E14" s="99">
-        <f>'Test Cases'!Q4</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="101">
-        <f>'Test Cases'!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="102">
-        <f>'Test Cases'!Q6</f>
-        <v>62</v>
-      </c>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="85"/>
-      <c r="R14" s="85"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="85"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="85"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="85"/>
-      <c r="Z14" s="85"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.600000000000001" thickBot="1">
-      <c r="B15" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="88">
-        <f t="shared" ref="C15:G15" si="0">SUM(C14)</f>
-        <v>38</v>
-      </c>
-      <c r="D15" s="89">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E15" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="90">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-    </row>
-    <row r="17" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-    </row>
-    <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="258" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="244"/>
-      <c r="D18" s="244"/>
-      <c r="E18" s="244"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="245"/>
-    </row>
-    <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="259" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="244"/>
-      <c r="D19" s="245"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="G19" s="93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="243" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="244"/>
-      <c r="D20" s="245"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="243" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="244"/>
-      <c r="D21" s="245"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="260"/>
-      <c r="C23" s="263" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="264" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="265"/>
-      <c r="F23" s="265"/>
-      <c r="G23" s="266"/>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="261"/>
-      <c r="C24" s="261"/>
-      <c r="D24" s="267"/>
-      <c r="E24" s="268"/>
-      <c r="F24" s="268"/>
-      <c r="G24" s="254"/>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="261"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="267"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="268"/>
-      <c r="G25" s="254"/>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="262"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="257"/>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="272" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="273" t="s">
-        <v>102</v>
-      </c>
-      <c r="E27" s="265"/>
-      <c r="F27" s="265"/>
-      <c r="G27" s="266"/>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="270"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="267"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="254"/>
-    </row>
-    <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="270"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="267"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="254"/>
-    </row>
-    <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="271"/>
-      <c r="C30" s="262"/>
-      <c r="D30" s="255"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="257"/>
-    </row>
-    <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="272" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="273" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" s="265"/>
-      <c r="F31" s="265"/>
-      <c r="G31" s="266"/>
-    </row>
-    <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="270"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="254"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="270"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="267"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="254"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="271"/>
-      <c r="C34" s="262"/>
-      <c r="D34" s="255"/>
-      <c r="E34" s="256"/>
-      <c r="F34" s="256"/>
-      <c r="G34" s="257"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="272" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="273" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="265"/>
-      <c r="F35" s="265"/>
-      <c r="G35" s="266"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="270"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="254"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="270"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="267"/>
-      <c r="E37" s="268"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="254"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="271"/>
-      <c r="C38" s="262"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="256"/>
-      <c r="F38" s="256"/>
-      <c r="G38" s="257"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="272" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="273" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="266"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="270"/>
-      <c r="C40" s="261"/>
-      <c r="D40" s="267"/>
-      <c r="E40" s="268"/>
-      <c r="F40" s="268"/>
-      <c r="G40" s="254"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="270"/>
-      <c r="C41" s="261"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="268"/>
-      <c r="F41" s="268"/>
-      <c r="G41" s="254"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="271"/>
-      <c r="C42" s="262"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="256"/>
-      <c r="F42" s="256"/>
-      <c r="G42" s="257"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="269" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="273" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="265"/>
-      <c r="F43" s="265"/>
-      <c r="G43" s="266"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="270"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="268"/>
-      <c r="G44" s="254"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="270"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="268"/>
-      <c r="G45" s="254"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="271"/>
-      <c r="C46" s="262"/>
-      <c r="D46" s="255"/>
-      <c r="E46" s="256"/>
-      <c r="F46" s="256"/>
-      <c r="G46" s="257"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="269" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="273" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="265"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="266"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="270"/>
-      <c r="C48" s="261"/>
-      <c r="D48" s="267"/>
-      <c r="E48" s="268"/>
-      <c r="F48" s="268"/>
-      <c r="G48" s="254"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="270"/>
-      <c r="C49" s="261"/>
-      <c r="D49" s="267"/>
-      <c r="E49" s="268"/>
-      <c r="F49" s="268"/>
-      <c r="G49" s="254"/>
-    </row>
-    <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="271"/>
-      <c r="C50" s="262"/>
-      <c r="D50" s="255"/>
-      <c r="E50" s="256"/>
-      <c r="F50" s="256"/>
-      <c r="G50" s="257"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="269" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="269" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="273" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="265"/>
-      <c r="F51" s="265"/>
-      <c r="G51" s="266"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="270"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="268"/>
-      <c r="G52" s="254"/>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="270"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="268"/>
-      <c r="G53" s="254"/>
-    </row>
-    <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="271"/>
-      <c r="C54" s="262"/>
-      <c r="D54" s="255"/>
-      <c r="E54" s="256"/>
-      <c r="F54" s="256"/>
-      <c r="G54" s="257"/>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="57" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="59" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="60" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="61" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="63" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="64" spans="2:7" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -7638,7 +5972,7 @@
     </row>
     <row r="2" spans="1:34" ht="45" customHeight="1">
       <c r="A2" s="284" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2" s="285"/>
       <c r="C2" s="285"/>
@@ -7897,7 +6231,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>90</v>
@@ -7959,7 +6293,7 @@
         <v>72</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -8053,18 +6387,18 @@
         <v>72</v>
       </c>
       <c r="E10" s="224" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F10" s="224" t="s">
         <v>73</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="200" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I10" s="133"/>
       <c r="J10" s="116" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>244</v>
@@ -8110,11 +6444,11 @@
       <c r="F11" s="16"/>
       <c r="G11" s="9"/>
       <c r="H11" s="201" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I11" s="133"/>
       <c r="J11" s="114" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>245</v>
@@ -8160,11 +6494,11 @@
       <c r="F12" s="16"/>
       <c r="G12" s="22"/>
       <c r="H12" s="201" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I12" s="133"/>
       <c r="J12" s="114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>241</v>
@@ -8208,7 +6542,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="22"/>
       <c r="H13" s="201" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I13" s="133"/>
       <c r="J13" s="114" t="s">
@@ -8258,11 +6592,11 @@
       <c r="F14" s="16"/>
       <c r="G14" s="22"/>
       <c r="H14" s="201" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I14" s="133"/>
       <c r="J14" s="114" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>258</v>
@@ -8306,7 +6640,7 @@
       <c r="F15" s="16"/>
       <c r="G15" s="22"/>
       <c r="H15" s="201" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I15" s="133"/>
       <c r="J15" s="114" t="s">
@@ -8354,7 +6688,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="22"/>
       <c r="H16" s="201" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I16" s="133"/>
       <c r="J16" s="114" t="s">
@@ -8404,11 +6738,11 @@
       <c r="F17" s="16"/>
       <c r="G17" s="22"/>
       <c r="H17" s="201" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I17" s="133"/>
       <c r="J17" s="116" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>273</v>
@@ -8452,7 +6786,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="22"/>
       <c r="H18" s="202" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I18" s="133"/>
       <c r="J18" s="114" t="s">
@@ -8500,7 +6834,7 @@
       <c r="F19" s="16"/>
       <c r="G19" s="22"/>
       <c r="H19" s="201" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I19" s="133"/>
       <c r="J19" s="114" t="s">
@@ -8550,14 +6884,14 @@
       <c r="F20" s="16"/>
       <c r="G20" s="22"/>
       <c r="H20" s="201" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I20" s="134"/>
       <c r="J20" s="116" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>542</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>543</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>279</v>
@@ -8600,7 +6934,7 @@
       <c r="F21" s="16"/>
       <c r="G21" s="22"/>
       <c r="H21" s="225" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I21" s="134"/>
       <c r="J21" s="116" t="s">
@@ -8648,7 +6982,7 @@
       <c r="F22" s="16"/>
       <c r="G22" s="22"/>
       <c r="H22" s="201" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I22" s="134"/>
       <c r="J22" s="114" t="s">
@@ -8698,7 +7032,7 @@
       <c r="F23" s="16"/>
       <c r="G23" s="22"/>
       <c r="H23" s="201" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I23" s="135"/>
       <c r="J23" s="114" t="s">
@@ -8747,7 +7081,7 @@
       <c r="F24" s="16"/>
       <c r="G24" s="22"/>
       <c r="H24" s="201" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I24" s="135"/>
       <c r="J24" s="114" t="s">
@@ -8796,7 +7130,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="22"/>
       <c r="H25" s="202" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I25" s="135"/>
       <c r="J25" s="114" t="s">
@@ -8845,10 +7179,10 @@
       <c r="F26" s="16"/>
       <c r="G26" s="22"/>
       <c r="H26" s="202" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I26" s="132" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J26" s="114" t="s">
         <v>240</v>
@@ -8898,10 +7232,10 @@
       <c r="F27" s="69"/>
       <c r="G27" s="142"/>
       <c r="H27" s="201" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I27" s="230" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J27" s="117" t="s">
         <v>239</v>
@@ -9004,7 +7338,7 @@
       </c>
       <c r="I29" s="114"/>
       <c r="J29" s="114" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>264</v>
@@ -9052,7 +7386,7 @@
         <v>72</v>
       </c>
       <c r="E30" s="141" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F30" s="141" t="s">
         <v>73</v>
@@ -9163,7 +7497,7 @@
       </c>
       <c r="I32" s="11"/>
       <c r="J32" s="115" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>317</v>
@@ -9293,21 +7627,21 @@
         <v>72</v>
       </c>
       <c r="E35" s="228" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F35" s="228" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="21"/>
       <c r="H35" s="226" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I35" s="34"/>
       <c r="J35" s="118" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>30</v>
@@ -9398,14 +7732,14 @@
       <c r="F37" s="239"/>
       <c r="G37" s="16"/>
       <c r="H37" s="227" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I37" s="25"/>
       <c r="J37" s="114" t="s">
         <v>256</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>30</v>
@@ -9448,7 +7782,7 @@
         <v>72</v>
       </c>
       <c r="E38" s="232" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F38" s="232" t="s">
         <v>73</v>
@@ -9461,7 +7795,7 @@
       </c>
       <c r="I38" s="25"/>
       <c r="J38" s="114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K38" s="19" t="s">
         <v>255</v>
@@ -9506,14 +7840,14 @@
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
       <c r="H39" s="234" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I39" s="25"/>
       <c r="J39" s="114" t="s">
+        <v>577</v>
+      </c>
+      <c r="K39" s="19" t="s">
         <v>578</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>579</v>
       </c>
       <c r="L39" s="19" t="s">
         <v>30</v>
@@ -9591,7 +7925,7 @@
         <v>72</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>73</v>
@@ -9699,7 +8033,7 @@
         <v>121</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J43" s="114" t="s">
         <v>143</v>
@@ -10252,7 +8586,7 @@
         <v>72</v>
       </c>
       <c r="E54" s="238" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F54" s="144" t="s">
         <v>73</v>
@@ -10444,7 +8778,7 @@
         <v>72</v>
       </c>
       <c r="E58" s="199" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F58" s="199" t="s">
         <v>73</v>
@@ -11041,7 +9375,7 @@
         <v>72</v>
       </c>
       <c r="E70" s="241" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F70" s="203" t="s">
         <v>73</v>
@@ -11191,10 +9525,10 @@
     </row>
     <row r="73" spans="1:34" ht="75" customHeight="1">
       <c r="A73" s="121" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B73" s="138" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C73" s="109" t="s">
         <v>304</v>
@@ -11203,7 +9537,7 @@
         <v>72</v>
       </c>
       <c r="E73" s="241" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F73" s="203" t="s">
         <v>73</v>
@@ -11251,10 +9585,10 @@
     </row>
     <row r="74" spans="1:34" ht="75" customHeight="1">
       <c r="A74" s="121" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B74" s="138" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -17905,12 +16239,1678 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D930F6-31E2-47A1-AA0F-1745B9D006F0}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="40.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.109375" customWidth="1"/>
+    <col min="14" max="14" width="25.77734375" customWidth="1"/>
+    <col min="15" max="15" width="30.6640625" customWidth="1"/>
+    <col min="16" max="16" width="25" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="26" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:26" ht="8.25" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B4" s="264" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="265"/>
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="266"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B5" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="267" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="268"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="268"/>
+      <c r="G5" s="269"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B6" s="113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="267" t="s">
+        <v>572</v>
+      </c>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="269"/>
+      <c r="I6" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B7" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="267"/>
+      <c r="D7" s="268"/>
+      <c r="E7" s="268"/>
+      <c r="F7" s="268"/>
+      <c r="G7" s="269"/>
+      <c r="I7" s="76">
+        <f>C15</f>
+        <v>38</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B8" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="267" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="269"/>
+      <c r="I8" s="76">
+        <f>D15</f>
+        <v>24</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="79"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B9" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="267" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="268"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="268"/>
+      <c r="G9" s="269"/>
+      <c r="I9" s="76">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="74"/>
+      <c r="L9" s="242" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" s="125" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="125" t="s">
+        <v>509</v>
+      </c>
+      <c r="O9" s="198" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="80"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B10" s="112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="267" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="269"/>
+      <c r="I10" s="76">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B11" s="270" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="271"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="271"/>
+      <c r="F11" s="271"/>
+      <c r="G11" s="253"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B12" s="254"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="255"/>
+      <c r="E12" s="255"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="256"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B13" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+    </row>
+    <row r="14" spans="1:26" ht="48" customHeight="1">
+      <c r="A14" s="85"/>
+      <c r="B14" s="236">
+        <v>62</v>
+      </c>
+      <c r="C14" s="107">
+        <f>'Test Cases'!Q2</f>
+        <v>38</v>
+      </c>
+      <c r="D14" s="100">
+        <f>'Test Cases'!Q3</f>
+        <v>24</v>
+      </c>
+      <c r="E14" s="99">
+        <f>'Test Cases'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="101">
+        <f>'Test Cases'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="102">
+        <f>'Test Cases'!Q6</f>
+        <v>62</v>
+      </c>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.600000000000001" thickBot="1">
+      <c r="B15" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="88">
+        <f t="shared" ref="C15:G15" si="0">SUM(C14)</f>
+        <v>38</v>
+      </c>
+      <c r="D15" s="89">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E15" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="88">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="90">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="L15" s="72"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+    </row>
+    <row r="17" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+    </row>
+    <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B18" s="272" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="262"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="263"/>
+    </row>
+    <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B19" s="273" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="262"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B20" s="261" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="262"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B21" s="261" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="262"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="23" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B23" s="258"/>
+      <c r="C23" s="259" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="260" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="250"/>
+    </row>
+    <row r="24" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B24" s="246"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="252"/>
+      <c r="F24" s="252"/>
+      <c r="G24" s="253"/>
+    </row>
+    <row r="25" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="253"/>
+    </row>
+    <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="255"/>
+      <c r="G26" s="256"/>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B27" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="248" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="250"/>
+    </row>
+    <row r="28" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B28" s="244"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="252"/>
+      <c r="G28" s="253"/>
+    </row>
+    <row r="29" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B29" s="244"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="251"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="253"/>
+    </row>
+    <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="245"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="256"/>
+    </row>
+    <row r="31" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B31" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="257" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="248" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="250"/>
+    </row>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B32" s="244"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="253"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="244"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="251"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="253"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B34" s="245"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="254"/>
+      <c r="E34" s="255"/>
+      <c r="F34" s="255"/>
+      <c r="G34" s="256"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="257" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="248" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="249"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="250"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="244"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="251"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="253"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="244"/>
+      <c r="C37" s="246"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="253"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B38" s="245"/>
+      <c r="C38" s="247"/>
+      <c r="D38" s="254"/>
+      <c r="E38" s="255"/>
+      <c r="F38" s="255"/>
+      <c r="G38" s="256"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="257" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="248" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="250"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="244"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="252"/>
+      <c r="G40" s="253"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="244"/>
+      <c r="C41" s="246"/>
+      <c r="D41" s="251"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="253"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B42" s="245"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="254"/>
+      <c r="E42" s="255"/>
+      <c r="F42" s="255"/>
+      <c r="G42" s="256"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="243" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="248" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
+      <c r="G43" s="250"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="244"/>
+      <c r="C44" s="246"/>
+      <c r="D44" s="251"/>
+      <c r="E44" s="252"/>
+      <c r="F44" s="252"/>
+      <c r="G44" s="253"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="244"/>
+      <c r="C45" s="246"/>
+      <c r="D45" s="251"/>
+      <c r="E45" s="252"/>
+      <c r="F45" s="252"/>
+      <c r="G45" s="253"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B46" s="245"/>
+      <c r="C46" s="247"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="255"/>
+      <c r="F46" s="255"/>
+      <c r="G46" s="256"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="243" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="248" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
+      <c r="G47" s="250"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="244"/>
+      <c r="C48" s="246"/>
+      <c r="D48" s="251"/>
+      <c r="E48" s="252"/>
+      <c r="F48" s="252"/>
+      <c r="G48" s="253"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="244"/>
+      <c r="C49" s="246"/>
+      <c r="D49" s="251"/>
+      <c r="E49" s="252"/>
+      <c r="F49" s="252"/>
+      <c r="G49" s="253"/>
+    </row>
+    <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
+      <c r="B50" s="245"/>
+      <c r="C50" s="247"/>
+      <c r="D50" s="254"/>
+      <c r="E50" s="255"/>
+      <c r="F50" s="255"/>
+      <c r="G50" s="256"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="243" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="243" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="248" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="250"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="244"/>
+      <c r="C52" s="246"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="252"/>
+      <c r="F52" s="252"/>
+      <c r="G52" s="253"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B53" s="244"/>
+      <c r="C53" s="246"/>
+      <c r="D53" s="251"/>
+      <c r="E53" s="252"/>
+      <c r="F53" s="252"/>
+      <c r="G53" s="253"/>
+    </row>
+    <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
+      <c r="B54" s="245"/>
+      <c r="C54" s="247"/>
+      <c r="D54" s="254"/>
+      <c r="E54" s="255"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="256"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="57" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="62" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="63" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="64" spans="2:7" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BB5D23-2B59-45DB-B0EA-5931F1212FFF}">
   <dimension ref="B3:W56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17977,7 +17977,7 @@
         <v>411</v>
       </c>
       <c r="H4" s="215" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J4" s="211" t="s">
         <v>379</v>
@@ -17989,7 +17989,7 @@
         <v>382</v>
       </c>
       <c r="P4" s="211" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="60" customHeight="1">
@@ -18003,7 +18003,7 @@
         <v>419</v>
       </c>
       <c r="H5" s="216" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J5" s="212" t="s">
         <v>420</v>
@@ -18020,7 +18020,7 @@
     </row>
     <row r="6" spans="2:23" ht="115.05" customHeight="1">
       <c r="B6" s="212" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D6" s="212" t="s">
         <v>392</v>
@@ -18029,7 +18029,7 @@
         <v>412</v>
       </c>
       <c r="H6" s="216" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J6" s="212" t="s">
         <v>393</v>
@@ -18090,36 +18090,36 @@
         <v>417</v>
       </c>
       <c r="N8" s="212" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P8" s="212" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="25.05" customHeight="1">
       <c r="B9" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D9" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F9" s="216" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H9" s="216" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J9" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L9" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N9" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P9" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="25.05" customHeight="1">
@@ -18195,7 +18195,7 @@
         <v>448</v>
       </c>
       <c r="H13" s="216" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J13" s="212" t="s">
         <v>449</v>
@@ -18268,19 +18268,19 @@
         <v>384</v>
       </c>
       <c r="F18" s="211" t="s">
+        <v>564</v>
+      </c>
+      <c r="H18" s="211" t="s">
         <v>565</v>
-      </c>
-      <c r="H18" s="211" t="s">
-        <v>566</v>
       </c>
       <c r="J18" s="211" t="s">
         <v>386</v>
       </c>
       <c r="L18" s="211" t="s">
+        <v>566</v>
+      </c>
+      <c r="N18" s="211" t="s">
         <v>567</v>
-      </c>
-      <c r="N18" s="211" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="60" customHeight="1">
@@ -18377,25 +18377,25 @@
     </row>
     <row r="23" spans="2:14" ht="25.05" customHeight="1">
       <c r="B23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N23" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="25.05" customHeight="1">
@@ -18538,16 +18538,16 @@
         <v>391</v>
       </c>
       <c r="H32" s="212" t="s">
+        <v>510</v>
+      </c>
+      <c r="J32" s="211" t="s">
         <v>511</v>
       </c>
-      <c r="J32" s="211" t="s">
-        <v>512</v>
-      </c>
       <c r="L32" s="211" t="s">
+        <v>568</v>
+      </c>
+      <c r="N32" s="211" t="s">
         <v>569</v>
-      </c>
-      <c r="N32" s="211" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="60" customHeight="1">
@@ -18644,25 +18644,25 @@
     </row>
     <row r="37" spans="2:14" ht="25.05" customHeight="1">
       <c r="B37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H37" s="212" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N37" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="25.05" customHeight="1">
@@ -18777,10 +18777,10 @@
     </row>
     <row r="46" spans="2:14" ht="24.6" customHeight="1">
       <c r="B46" s="211" t="s">
+        <v>570</v>
+      </c>
+      <c r="D46" s="211" t="s">
         <v>571</v>
-      </c>
-      <c r="D46" s="211" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="60" customHeight="1">
@@ -18817,10 +18817,10 @@
     </row>
     <row r="51" spans="2:4" ht="25.05" customHeight="1">
       <c r="B51" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D51" s="211" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="25.05" customHeight="1">
@@ -19011,7 +19011,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
@@ -19047,7 +19047,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46"/>
@@ -19083,7 +19083,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
@@ -19119,7 +19119,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
@@ -19155,7 +19155,7 @@
         <v>57</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>

--- a/techlandbd.com_Testing_Documentation.xlsx
+++ b/techlandbd.com_Testing_Documentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\SQA\Git Repository\Manual Project\manual_testing_techlandbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F0FE3B-5463-4AAE-AC26-82DDA2B24DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA6DE1-1470-4198-8CD9-3C96C4278AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4014,39 +4014,52 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4073,57 +4086,44 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="24" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5925,16 +5925,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="57" customFormat="1" ht="45" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
       <c r="I1" s="54"/>
       <c r="J1" s="192" t="s">
         <v>0</v>
@@ -5948,10 +5948,10 @@
       <c r="M1" s="196"/>
       <c r="N1" s="161"/>
       <c r="O1" s="55"/>
-      <c r="P1" s="282" t="s">
+      <c r="P1" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="283"/>
+      <c r="Q1" s="252"/>
       <c r="R1" s="56"/>
       <c r="S1" s="56"/>
       <c r="T1" s="56"/>
@@ -5971,16 +5971,16 @@
       <c r="AH1" s="56"/>
     </row>
     <row r="2" spans="1:34" ht="45" customHeight="1">
-      <c r="A2" s="284" t="s">
+      <c r="A2" s="253" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="285"/>
-      <c r="C2" s="285"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="287"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="256"/>
       <c r="I2" s="2"/>
       <c r="J2" s="193" t="s">
         <v>3</v>
@@ -6022,16 +6022,16 @@
       <c r="AH2" s="58"/>
     </row>
     <row r="3" spans="1:34" ht="45" customHeight="1">
-      <c r="A3" s="284" t="s">
+      <c r="A3" s="253" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="285"/>
-      <c r="C3" s="285"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="287"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="256"/>
       <c r="I3" s="2"/>
       <c r="J3" s="194" t="s">
         <v>6</v>
@@ -6075,16 +6075,16 @@
       <c r="AH3" s="58"/>
     </row>
     <row r="4" spans="1:34" ht="45" customHeight="1">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="253" t="s">
         <v>415</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="F4" s="286"/>
-      <c r="G4" s="286"/>
-      <c r="H4" s="287"/>
+      <c r="B4" s="254"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="255"/>
+      <c r="E4" s="255"/>
+      <c r="F4" s="255"/>
+      <c r="G4" s="255"/>
+      <c r="H4" s="256"/>
       <c r="I4" s="2"/>
       <c r="J4" s="194" t="s">
         <v>9</v>
@@ -6126,16 +6126,16 @@
       <c r="AH4" s="58"/>
     </row>
     <row r="5" spans="1:34" ht="45" customHeight="1">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="257" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="289"/>
-      <c r="C5" s="289"/>
-      <c r="D5" s="289"/>
-      <c r="E5" s="289"/>
-      <c r="F5" s="289"/>
-      <c r="G5" s="289"/>
-      <c r="H5" s="290"/>
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="259"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -6171,21 +6171,21 @@
       <c r="AH5" s="58"/>
     </row>
     <row r="6" spans="1:34" ht="42.6" customHeight="1">
-      <c r="A6" s="274"/>
-      <c r="B6" s="275"/>
-      <c r="C6" s="275"/>
-      <c r="D6" s="275"/>
-      <c r="E6" s="275"/>
-      <c r="F6" s="275"/>
-      <c r="G6" s="275"/>
-      <c r="H6" s="276"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="278"/>
-      <c r="N6" s="278"/>
-      <c r="O6" s="279"/>
+      <c r="A6" s="243"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="244"/>
+      <c r="D6" s="244"/>
+      <c r="E6" s="244"/>
+      <c r="F6" s="244"/>
+      <c r="G6" s="244"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="247"/>
+      <c r="K6" s="247"/>
+      <c r="L6" s="247"/>
+      <c r="M6" s="247"/>
+      <c r="N6" s="247"/>
+      <c r="O6" s="248"/>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
@@ -16266,39 +16266,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="263" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="266"/>
+      <c r="C4" s="264"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="265"/>
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="267" t="s">
+      <c r="C5" s="266" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
-      <c r="G5" s="269"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="267"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="268"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="267" t="s">
+      <c r="C6" s="266" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
-      <c r="G6" s="269"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="268"/>
       <c r="I6" s="73" t="s">
         <v>77</v>
       </c>
@@ -16314,11 +16314,11 @@
       <c r="B7" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="267"/>
-      <c r="D7" s="268"/>
-      <c r="E7" s="268"/>
-      <c r="F7" s="268"/>
-      <c r="G7" s="269"/>
+      <c r="C7" s="266"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="268"/>
       <c r="I7" s="76">
         <f>C15</f>
         <v>38</v>
@@ -16333,13 +16333,13 @@
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="267" t="s">
+      <c r="C8" s="266" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="269"/>
+      <c r="D8" s="267"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="267"/>
+      <c r="G8" s="268"/>
       <c r="I8" s="76">
         <f>D15</f>
         <v>24</v>
@@ -16354,13 +16354,13 @@
       <c r="B9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="267" t="s">
+      <c r="C9" s="266" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
-      <c r="G9" s="269"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="268"/>
       <c r="I9" s="76">
         <f>E15</f>
         <v>0</v>
@@ -16387,13 +16387,13 @@
       <c r="B10" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="267" t="s">
+      <c r="C10" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
-      <c r="G10" s="269"/>
+      <c r="D10" s="267"/>
+      <c r="E10" s="267"/>
+      <c r="F10" s="267"/>
+      <c r="G10" s="268"/>
       <c r="I10" s="76">
         <f>F15</f>
         <v>0</v>
@@ -16409,22 +16409,22 @@
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="270" t="s">
+      <c r="B11" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="271"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="271"/>
-      <c r="F11" s="271"/>
-      <c r="G11" s="253"/>
+      <c r="C11" s="270"/>
+      <c r="D11" s="270"/>
+      <c r="E11" s="270"/>
+      <c r="F11" s="270"/>
+      <c r="G11" s="271"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="254"/>
-      <c r="C12" s="255"/>
-      <c r="D12" s="255"/>
-      <c r="E12" s="255"/>
-      <c r="F12" s="255"/>
-      <c r="G12" s="256"/>
+      <c r="B12" s="272"/>
+      <c r="C12" s="273"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="273"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="274"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="81" t="s">
@@ -16561,21 +16561,21 @@
       <c r="R17" s="84"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="272" t="s">
+      <c r="B18" s="275" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="263"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="262"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="273" t="s">
+      <c r="B19" s="276" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="262"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93" t="s">
         <v>96</v>
@@ -16585,11 +16585,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="261" t="s">
+      <c r="B20" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="261"/>
+      <c r="D20" s="262"/>
       <c r="E20" s="94"/>
       <c r="F20" s="94" t="s">
         <v>11</v>
@@ -16599,11 +16599,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="261" t="s">
+      <c r="B21" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="262"/>
       <c r="E21" s="94"/>
       <c r="F21" s="94" t="s">
         <v>11</v>
@@ -16614,306 +16614,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="258"/>
-      <c r="C23" s="259" t="s">
+      <c r="B23" s="277"/>
+      <c r="C23" s="280" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="260" t="s">
+      <c r="D23" s="281" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="250"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="283"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="246"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="251"/>
-      <c r="E24" s="252"/>
-      <c r="F24" s="252"/>
-      <c r="G24" s="253"/>
+      <c r="B24" s="278"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="271"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="253"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="271"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="255"/>
-      <c r="G26" s="256"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="279"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="274"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="243" t="s">
+      <c r="B27" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="257" t="s">
+      <c r="C27" s="289" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="248" t="s">
+      <c r="D27" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
-      <c r="G27" s="250"/>
+      <c r="E27" s="282"/>
+      <c r="F27" s="282"/>
+      <c r="G27" s="283"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="244"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="251"/>
-      <c r="E28" s="252"/>
-      <c r="F28" s="252"/>
-      <c r="G28" s="253"/>
+      <c r="B28" s="287"/>
+      <c r="C28" s="278"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="271"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="244"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="251"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="253"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="271"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="245"/>
-      <c r="C30" s="247"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="255"/>
-      <c r="F30" s="255"/>
-      <c r="G30" s="256"/>
+      <c r="B30" s="288"/>
+      <c r="C30" s="279"/>
+      <c r="D30" s="272"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="274"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="243" t="s">
+      <c r="B31" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="257" t="s">
+      <c r="C31" s="289" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="248" t="s">
+      <c r="D31" s="290" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="249"/>
-      <c r="F31" s="249"/>
-      <c r="G31" s="250"/>
+      <c r="E31" s="282"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="283"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="244"/>
-      <c r="C32" s="246"/>
-      <c r="D32" s="251"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="253"/>
+      <c r="B32" s="287"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="284"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="271"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="244"/>
-      <c r="C33" s="246"/>
-      <c r="D33" s="251"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="253"/>
+      <c r="B33" s="287"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="271"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="245"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="254"/>
-      <c r="E34" s="255"/>
-      <c r="F34" s="255"/>
-      <c r="G34" s="256"/>
+      <c r="B34" s="288"/>
+      <c r="C34" s="279"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="274"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="243" t="s">
+      <c r="B35" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="257" t="s">
+      <c r="C35" s="289" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="248" t="s">
+      <c r="D35" s="290" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="249"/>
-      <c r="F35" s="249"/>
-      <c r="G35" s="250"/>
+      <c r="E35" s="282"/>
+      <c r="F35" s="282"/>
+      <c r="G35" s="283"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="244"/>
-      <c r="C36" s="246"/>
-      <c r="D36" s="251"/>
-      <c r="E36" s="252"/>
-      <c r="F36" s="252"/>
-      <c r="G36" s="253"/>
+      <c r="B36" s="287"/>
+      <c r="C36" s="278"/>
+      <c r="D36" s="284"/>
+      <c r="E36" s="285"/>
+      <c r="F36" s="285"/>
+      <c r="G36" s="271"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="244"/>
-      <c r="C37" s="246"/>
-      <c r="D37" s="251"/>
-      <c r="E37" s="252"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="253"/>
+      <c r="B37" s="287"/>
+      <c r="C37" s="278"/>
+      <c r="D37" s="284"/>
+      <c r="E37" s="285"/>
+      <c r="F37" s="285"/>
+      <c r="G37" s="271"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="245"/>
-      <c r="C38" s="247"/>
-      <c r="D38" s="254"/>
-      <c r="E38" s="255"/>
-      <c r="F38" s="255"/>
-      <c r="G38" s="256"/>
+      <c r="B38" s="288"/>
+      <c r="C38" s="279"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="273"/>
+      <c r="F38" s="273"/>
+      <c r="G38" s="274"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="243" t="s">
+      <c r="B39" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="257" t="s">
+      <c r="C39" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="248" t="s">
+      <c r="D39" s="290" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="250"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="283"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="244"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="251"/>
-      <c r="E40" s="252"/>
-      <c r="F40" s="252"/>
-      <c r="G40" s="253"/>
+      <c r="B40" s="287"/>
+      <c r="C40" s="278"/>
+      <c r="D40" s="284"/>
+      <c r="E40" s="285"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="271"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="244"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="251"/>
-      <c r="E41" s="252"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="253"/>
+      <c r="B41" s="287"/>
+      <c r="C41" s="278"/>
+      <c r="D41" s="284"/>
+      <c r="E41" s="285"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="271"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="245"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="254"/>
-      <c r="E42" s="255"/>
-      <c r="F42" s="255"/>
-      <c r="G42" s="256"/>
+      <c r="B42" s="288"/>
+      <c r="C42" s="279"/>
+      <c r="D42" s="272"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="274"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="243" t="s">
+      <c r="B43" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="243" t="s">
+      <c r="C43" s="286" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="248" t="s">
+      <c r="D43" s="290" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="249"/>
-      <c r="F43" s="249"/>
-      <c r="G43" s="250"/>
+      <c r="E43" s="282"/>
+      <c r="F43" s="282"/>
+      <c r="G43" s="283"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="244"/>
-      <c r="C44" s="246"/>
-      <c r="D44" s="251"/>
-      <c r="E44" s="252"/>
-      <c r="F44" s="252"/>
-      <c r="G44" s="253"/>
+      <c r="B44" s="287"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="284"/>
+      <c r="E44" s="285"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="271"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="244"/>
-      <c r="C45" s="246"/>
-      <c r="D45" s="251"/>
-      <c r="E45" s="252"/>
-      <c r="F45" s="252"/>
-      <c r="G45" s="253"/>
+      <c r="B45" s="287"/>
+      <c r="C45" s="278"/>
+      <c r="D45" s="284"/>
+      <c r="E45" s="285"/>
+      <c r="F45" s="285"/>
+      <c r="G45" s="271"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="245"/>
-      <c r="C46" s="247"/>
-      <c r="D46" s="254"/>
-      <c r="E46" s="255"/>
-      <c r="F46" s="255"/>
-      <c r="G46" s="256"/>
+      <c r="B46" s="288"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="272"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="273"/>
+      <c r="G46" s="274"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="243" t="s">
+      <c r="B47" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="243" t="s">
+      <c r="C47" s="286" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="248" t="s">
+      <c r="D47" s="290" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="249"/>
-      <c r="F47" s="249"/>
-      <c r="G47" s="250"/>
+      <c r="E47" s="282"/>
+      <c r="F47" s="282"/>
+      <c r="G47" s="283"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="244"/>
-      <c r="C48" s="246"/>
-      <c r="D48" s="251"/>
-      <c r="E48" s="252"/>
-      <c r="F48" s="252"/>
-      <c r="G48" s="253"/>
+      <c r="B48" s="287"/>
+      <c r="C48" s="278"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="285"/>
+      <c r="F48" s="285"/>
+      <c r="G48" s="271"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="244"/>
-      <c r="C49" s="246"/>
-      <c r="D49" s="251"/>
-      <c r="E49" s="252"/>
-      <c r="F49" s="252"/>
-      <c r="G49" s="253"/>
+      <c r="B49" s="287"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="284"/>
+      <c r="E49" s="285"/>
+      <c r="F49" s="285"/>
+      <c r="G49" s="271"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="245"/>
-      <c r="C50" s="247"/>
-      <c r="D50" s="254"/>
-      <c r="E50" s="255"/>
-      <c r="F50" s="255"/>
-      <c r="G50" s="256"/>
+      <c r="B50" s="288"/>
+      <c r="C50" s="279"/>
+      <c r="D50" s="272"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="274"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="243" t="s">
+      <c r="B51" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="243" t="s">
+      <c r="C51" s="286" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="248" t="s">
+      <c r="D51" s="290" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="249"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="250"/>
+      <c r="E51" s="282"/>
+      <c r="F51" s="282"/>
+      <c r="G51" s="283"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="244"/>
-      <c r="C52" s="246"/>
-      <c r="D52" s="251"/>
-      <c r="E52" s="252"/>
-      <c r="F52" s="252"/>
-      <c r="G52" s="253"/>
+      <c r="B52" s="287"/>
+      <c r="C52" s="278"/>
+      <c r="D52" s="284"/>
+      <c r="E52" s="285"/>
+      <c r="F52" s="285"/>
+      <c r="G52" s="271"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="244"/>
-      <c r="C53" s="246"/>
-      <c r="D53" s="251"/>
-      <c r="E53" s="252"/>
-      <c r="F53" s="252"/>
-      <c r="G53" s="253"/>
+      <c r="B53" s="287"/>
+      <c r="C53" s="278"/>
+      <c r="D53" s="284"/>
+      <c r="E53" s="285"/>
+      <c r="F53" s="285"/>
+      <c r="G53" s="271"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="245"/>
-      <c r="C54" s="247"/>
-      <c r="D54" s="254"/>
-      <c r="E54" s="255"/>
-      <c r="F54" s="255"/>
-      <c r="G54" s="256"/>
+      <c r="B54" s="288"/>
+      <c r="C54" s="279"/>
+      <c r="D54" s="272"/>
+      <c r="E54" s="273"/>
+      <c r="F54" s="273"/>
+      <c r="G54" s="274"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -17863,6 +17863,30 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -17875,30 +17899,6 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/techlandbd.com_Testing_Documentation.xlsx
+++ b/techlandbd.com_Testing_Documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\SQA\Git Repository\Manual Project\manual_testing_techlandbd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BA6DE1-1470-4198-8CD9-3C96C4278AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151F4B7E-CC9A-43E9-B35A-AED4A26FA9D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9300" tabRatio="406" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="6" r:id="rId1"/>
@@ -4061,6 +4061,40 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="22" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4086,45 +4120,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5692,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA056F1E-F4DB-47F3-946D-71859367A7F5}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -16266,39 +16266,39 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="281" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="264"/>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="265"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="283"/>
       <c r="K4" s="72"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="112" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="266" t="s">
+      <c r="C5" s="284" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="267"/>
-      <c r="E5" s="267"/>
-      <c r="F5" s="267"/>
-      <c r="G5" s="268"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="286"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
       <c r="B6" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="266" t="s">
+      <c r="C6" s="284" t="s">
         <v>572</v>
       </c>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="268"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="286"/>
       <c r="I6" s="73" t="s">
         <v>77</v>
       </c>
@@ -16314,11 +16314,11 @@
       <c r="B7" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="266"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="286"/>
       <c r="I7" s="76">
         <f>C15</f>
         <v>38</v>
@@ -16333,13 +16333,13 @@
       <c r="B8" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="266" t="s">
+      <c r="C8" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="267"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="268"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="286"/>
       <c r="I8" s="76">
         <f>D15</f>
         <v>24</v>
@@ -16354,13 +16354,13 @@
       <c r="B9" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="266" t="s">
+      <c r="C9" s="284" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="268"/>
+      <c r="D9" s="285"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="286"/>
       <c r="I9" s="76">
         <f>E15</f>
         <v>0</v>
@@ -16387,13 +16387,13 @@
       <c r="B10" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="266" t="s">
+      <c r="C10" s="284" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="267"/>
-      <c r="E10" s="267"/>
-      <c r="F10" s="267"/>
-      <c r="G10" s="268"/>
+      <c r="D10" s="285"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="285"/>
+      <c r="G10" s="286"/>
       <c r="I10" s="76">
         <f>F15</f>
         <v>0</v>
@@ -16409,22 +16409,22 @@
       <c r="P10" s="78"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B11" s="269" t="s">
+      <c r="B11" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="270"/>
-      <c r="D11" s="270"/>
-      <c r="E11" s="270"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="271"/>
+      <c r="C11" s="288"/>
+      <c r="D11" s="288"/>
+      <c r="E11" s="288"/>
+      <c r="F11" s="288"/>
+      <c r="G11" s="270"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B12" s="272"/>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="274"/>
+      <c r="B12" s="271"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="273"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="B13" s="81" t="s">
@@ -16561,21 +16561,21 @@
       <c r="R17" s="84"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="289" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="262"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="280"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B19" s="276" t="s">
+      <c r="B19" s="290" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="261"/>
-      <c r="D19" s="262"/>
+      <c r="C19" s="279"/>
+      <c r="D19" s="280"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93" t="s">
         <v>96</v>
@@ -16585,11 +16585,11 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B20" s="260" t="s">
+      <c r="B20" s="278" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="261"/>
-      <c r="D20" s="262"/>
+      <c r="C20" s="279"/>
+      <c r="D20" s="280"/>
       <c r="E20" s="94"/>
       <c r="F20" s="94" t="s">
         <v>11</v>
@@ -16599,11 +16599,11 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="261"/>
-      <c r="D21" s="262"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="280"/>
       <c r="E21" s="94"/>
       <c r="F21" s="94" t="s">
         <v>11</v>
@@ -16614,306 +16614,306 @@
     </row>
     <row r="22" spans="2:18" ht="15.75" customHeight="1" thickBot="1"/>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B23" s="277"/>
-      <c r="C23" s="280" t="s">
+      <c r="B23" s="275"/>
+      <c r="C23" s="276" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="281" t="s">
+      <c r="D23" s="277" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="283"/>
+      <c r="E23" s="266"/>
+      <c r="F23" s="266"/>
+      <c r="G23" s="267"/>
     </row>
     <row r="24" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B24" s="278"/>
-      <c r="C24" s="278"/>
-      <c r="D24" s="284"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="285"/>
-      <c r="G24" s="271"/>
+      <c r="B24" s="263"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="269"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="270"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="284"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="285"/>
-      <c r="G25" s="271"/>
+      <c r="B25" s="263"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="269"/>
+      <c r="F25" s="269"/>
+      <c r="G25" s="270"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B26" s="279"/>
-      <c r="C26" s="279"/>
-      <c r="D26" s="272"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="273"/>
-      <c r="G26" s="274"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="271"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="272"/>
+      <c r="G26" s="273"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B27" s="286" t="s">
+      <c r="B27" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="289" t="s">
+      <c r="C27" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="290" t="s">
+      <c r="D27" s="265" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="282"/>
-      <c r="F27" s="282"/>
-      <c r="G27" s="283"/>
+      <c r="E27" s="266"/>
+      <c r="F27" s="266"/>
+      <c r="G27" s="267"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B28" s="287"/>
-      <c r="C28" s="278"/>
-      <c r="D28" s="284"/>
-      <c r="E28" s="285"/>
-      <c r="F28" s="285"/>
-      <c r="G28" s="271"/>
+      <c r="B28" s="261"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="269"/>
+      <c r="F28" s="269"/>
+      <c r="G28" s="270"/>
     </row>
     <row r="29" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B29" s="287"/>
-      <c r="C29" s="278"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="285"/>
-      <c r="F29" s="285"/>
-      <c r="G29" s="271"/>
+      <c r="B29" s="261"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="269"/>
+      <c r="F29" s="269"/>
+      <c r="G29" s="270"/>
     </row>
     <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B30" s="288"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="272"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="274"/>
+      <c r="B30" s="262"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="272"/>
+      <c r="F30" s="272"/>
+      <c r="G30" s="273"/>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B31" s="286" t="s">
+      <c r="B31" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="289" t="s">
+      <c r="C31" s="274" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="290" t="s">
+      <c r="D31" s="265" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="282"/>
-      <c r="F31" s="282"/>
-      <c r="G31" s="283"/>
+      <c r="E31" s="266"/>
+      <c r="F31" s="266"/>
+      <c r="G31" s="267"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B32" s="287"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="285"/>
-      <c r="F32" s="285"/>
-      <c r="G32" s="271"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="263"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="270"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="287"/>
-      <c r="C33" s="278"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="285"/>
-      <c r="F33" s="285"/>
-      <c r="G33" s="271"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="263"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="270"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B34" s="288"/>
-      <c r="C34" s="279"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="274"/>
+      <c r="B34" s="262"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="273"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="286" t="s">
+      <c r="B35" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="289" t="s">
+      <c r="C35" s="274" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="290" t="s">
+      <c r="D35" s="265" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="282"/>
-      <c r="F35" s="282"/>
-      <c r="G35" s="283"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="267"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="287"/>
-      <c r="C36" s="278"/>
-      <c r="D36" s="284"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="285"/>
-      <c r="G36" s="271"/>
+      <c r="B36" s="261"/>
+      <c r="C36" s="263"/>
+      <c r="D36" s="268"/>
+      <c r="E36" s="269"/>
+      <c r="F36" s="269"/>
+      <c r="G36" s="270"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="287"/>
-      <c r="C37" s="278"/>
-      <c r="D37" s="284"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="285"/>
-      <c r="G37" s="271"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="263"/>
+      <c r="D37" s="268"/>
+      <c r="E37" s="269"/>
+      <c r="F37" s="269"/>
+      <c r="G37" s="270"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B38" s="288"/>
-      <c r="C38" s="279"/>
-      <c r="D38" s="272"/>
-      <c r="E38" s="273"/>
-      <c r="F38" s="273"/>
-      <c r="G38" s="274"/>
+      <c r="B38" s="262"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="272"/>
+      <c r="F38" s="272"/>
+      <c r="G38" s="273"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="286" t="s">
+      <c r="B39" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="289" t="s">
+      <c r="C39" s="274" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="290" t="s">
+      <c r="D39" s="265" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="283"/>
+      <c r="E39" s="266"/>
+      <c r="F39" s="266"/>
+      <c r="G39" s="267"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="287"/>
-      <c r="C40" s="278"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="285"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="271"/>
+      <c r="B40" s="261"/>
+      <c r="C40" s="263"/>
+      <c r="D40" s="268"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="269"/>
+      <c r="G40" s="270"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="287"/>
-      <c r="C41" s="278"/>
-      <c r="D41" s="284"/>
-      <c r="E41" s="285"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="271"/>
+      <c r="B41" s="261"/>
+      <c r="C41" s="263"/>
+      <c r="D41" s="268"/>
+      <c r="E41" s="269"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="270"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B42" s="288"/>
-      <c r="C42" s="279"/>
-      <c r="D42" s="272"/>
-      <c r="E42" s="273"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="274"/>
+      <c r="B42" s="262"/>
+      <c r="C42" s="264"/>
+      <c r="D42" s="271"/>
+      <c r="E42" s="272"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="286" t="s">
+      <c r="B43" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="286" t="s">
+      <c r="C43" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="290" t="s">
+      <c r="D43" s="265" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="282"/>
-      <c r="F43" s="282"/>
-      <c r="G43" s="283"/>
+      <c r="E43" s="266"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="267"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="287"/>
-      <c r="C44" s="278"/>
-      <c r="D44" s="284"/>
-      <c r="E44" s="285"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="271"/>
+      <c r="B44" s="261"/>
+      <c r="C44" s="263"/>
+      <c r="D44" s="268"/>
+      <c r="E44" s="269"/>
+      <c r="F44" s="269"/>
+      <c r="G44" s="270"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="287"/>
-      <c r="C45" s="278"/>
-      <c r="D45" s="284"/>
-      <c r="E45" s="285"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="271"/>
+      <c r="B45" s="261"/>
+      <c r="C45" s="263"/>
+      <c r="D45" s="268"/>
+      <c r="E45" s="269"/>
+      <c r="F45" s="269"/>
+      <c r="G45" s="270"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B46" s="288"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="272"/>
-      <c r="E46" s="273"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="274"/>
+      <c r="B46" s="262"/>
+      <c r="C46" s="264"/>
+      <c r="D46" s="271"/>
+      <c r="E46" s="272"/>
+      <c r="F46" s="272"/>
+      <c r="G46" s="273"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="286" t="s">
+      <c r="B47" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="286" t="s">
+      <c r="C47" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="D47" s="290" t="s">
+      <c r="D47" s="265" t="s">
         <v>111</v>
       </c>
-      <c r="E47" s="282"/>
-      <c r="F47" s="282"/>
-      <c r="G47" s="283"/>
+      <c r="E47" s="266"/>
+      <c r="F47" s="266"/>
+      <c r="G47" s="267"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="287"/>
-      <c r="C48" s="278"/>
-      <c r="D48" s="284"/>
-      <c r="E48" s="285"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="271"/>
+      <c r="B48" s="261"/>
+      <c r="C48" s="263"/>
+      <c r="D48" s="268"/>
+      <c r="E48" s="269"/>
+      <c r="F48" s="269"/>
+      <c r="G48" s="270"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="287"/>
-      <c r="C49" s="278"/>
-      <c r="D49" s="284"/>
-      <c r="E49" s="285"/>
-      <c r="F49" s="285"/>
-      <c r="G49" s="271"/>
+      <c r="B49" s="261"/>
+      <c r="C49" s="263"/>
+      <c r="D49" s="268"/>
+      <c r="E49" s="269"/>
+      <c r="F49" s="269"/>
+      <c r="G49" s="270"/>
     </row>
     <row r="50" spans="2:7" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B50" s="288"/>
-      <c r="C50" s="279"/>
-      <c r="D50" s="272"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="274"/>
+      <c r="B50" s="262"/>
+      <c r="C50" s="264"/>
+      <c r="D50" s="271"/>
+      <c r="E50" s="272"/>
+      <c r="F50" s="272"/>
+      <c r="G50" s="273"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="286" t="s">
+      <c r="B51" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="286" t="s">
+      <c r="C51" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="290" t="s">
+      <c r="D51" s="265" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="282"/>
-      <c r="F51" s="282"/>
-      <c r="G51" s="283"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="267"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="287"/>
-      <c r="C52" s="278"/>
-      <c r="D52" s="284"/>
-      <c r="E52" s="285"/>
-      <c r="F52" s="285"/>
-      <c r="G52" s="271"/>
+      <c r="B52" s="261"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="268"/>
+      <c r="E52" s="269"/>
+      <c r="F52" s="269"/>
+      <c r="G52" s="270"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="287"/>
-      <c r="C53" s="278"/>
-      <c r="D53" s="284"/>
-      <c r="E53" s="285"/>
-      <c r="F53" s="285"/>
-      <c r="G53" s="271"/>
+      <c r="B53" s="261"/>
+      <c r="C53" s="263"/>
+      <c r="D53" s="268"/>
+      <c r="E53" s="269"/>
+      <c r="F53" s="269"/>
+      <c r="G53" s="270"/>
     </row>
     <row r="54" spans="2:7" ht="39" customHeight="1" thickBot="1">
-      <c r="B54" s="288"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="272"/>
-      <c r="E54" s="273"/>
-      <c r="F54" s="273"/>
-      <c r="G54" s="274"/>
+      <c r="B54" s="262"/>
+      <c r="C54" s="264"/>
+      <c r="D54" s="271"/>
+      <c r="E54" s="272"/>
+      <c r="F54" s="272"/>
+      <c r="G54" s="273"/>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1"/>
@@ -17863,30 +17863,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C50"/>
-    <mergeCell ref="D47:G50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:G54"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:G42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:G46"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:G38"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:G26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:G30"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C5:G5"/>
@@ -17899,6 +17875,30 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:G38"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:G42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:G46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C50"/>
+    <mergeCell ref="D47:G50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17909,7 +17909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49BB5D23-2B59-45DB-B0EA-5931F1212FFF}">
   <dimension ref="B3:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
